--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.861793252840698</v>
+        <v>3.861793252840528</v>
       </c>
       <c r="C2">
         <v>1.891115580251949</v>
       </c>
       <c r="D2">
-        <v>0.2141409200851712</v>
+        <v>0.2141409200848159</v>
       </c>
       <c r="E2">
-        <v>1.497424344929811</v>
+        <v>1.497424344929797</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.307130596579668</v>
+        <v>3.307130596579611</v>
       </c>
       <c r="C3">
         <v>1.614016020697875</v>
       </c>
       <c r="D3">
-        <v>0.1833927958430905</v>
+        <v>0.18339279584319</v>
       </c>
       <c r="E3">
-        <v>1.268658850944476</v>
+        <v>1.268658850944576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.492334605394632</v>
+        <v>2.49233460539466</v>
       </c>
       <c r="H3">
         <v>1.52344459432156</v>
@@ -491,13 +491,13 @@
         <v>2.974938628934126</v>
       </c>
       <c r="C4">
-        <v>1.448859633639927</v>
+        <v>1.448859633640211</v>
       </c>
       <c r="D4">
-        <v>0.1650653489918028</v>
+        <v>0.1650653489916891</v>
       </c>
       <c r="E4">
-        <v>1.133776737125913</v>
+        <v>1.133776737125928</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>2.273067413900463</v>
       </c>
       <c r="H4">
-        <v>1.403906099652147</v>
+        <v>1.403906099652161</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.841298452032731</v>
+        <v>2.841298452032788</v>
       </c>
       <c r="C5">
-        <v>1.382587410458086</v>
+        <v>1.382587410458029</v>
       </c>
       <c r="D5">
-        <v>0.1577129577518264</v>
+        <v>0.1577129577520111</v>
       </c>
       <c r="E5">
-        <v>1.079958877468258</v>
+        <v>1.079958877468272</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.185823549222135</v>
+        <v>2.18582354922215</v>
       </c>
       <c r="H5">
         <v>1.356488432323218</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.819202168861466</v>
+        <v>2.819202168861409</v>
       </c>
       <c r="C6">
-        <v>1.371639272480706</v>
+        <v>1.371639272480479</v>
       </c>
       <c r="D6">
-        <v>0.1564985122254825</v>
+        <v>0.1564985122255251</v>
       </c>
       <c r="E6">
-        <v>1.071085061203846</v>
+        <v>1.07108506120386</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.171454169449518</v>
+        <v>2.17145416944949</v>
       </c>
       <c r="H6">
-        <v>1.34868708953276</v>
+        <v>1.348687089532774</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973129760099937</v>
+        <v>2.973129760100051</v>
       </c>
       <c r="C7">
-        <v>1.447961962814077</v>
+        <v>1.447961962813849</v>
       </c>
       <c r="D7">
-        <v>0.164965749307072</v>
+        <v>0.1649657493070151</v>
       </c>
       <c r="E7">
-        <v>1.133046592345835</v>
+        <v>1.133046592345792</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>2.271882730544704</v>
       </c>
       <c r="H7">
-        <v>1.403261634677762</v>
+        <v>1.403261634677747</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.668564334719804</v>
+        <v>3.66856433471969</v>
       </c>
       <c r="C8">
-        <v>1.794392275430823</v>
+        <v>1.794392275430766</v>
       </c>
       <c r="D8">
-        <v>0.2034097553584928</v>
+        <v>0.2034097553582939</v>
       </c>
       <c r="E8">
-        <v>1.417220142164993</v>
+        <v>1.417220142165064</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>2.734562787923423</v>
       </c>
       <c r="H8">
-        <v>1.656044254672068</v>
+        <v>1.65604425467204</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.119189159243945</v>
+        <v>5.119189159244002</v>
       </c>
       <c r="C9">
-        <v>2.525493018276336</v>
+        <v>2.525493018276677</v>
       </c>
       <c r="D9">
-        <v>0.2844007143889371</v>
+        <v>0.284400714389065</v>
       </c>
       <c r="E9">
-        <v>2.033061255751633</v>
+        <v>2.033061255751647</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.740673479834868</v>
+        <v>3.740673479834982</v>
       </c>
       <c r="H9">
-        <v>2.211625456073264</v>
+        <v>2.211625456073321</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.273899781456862</v>
+        <v>6.273899781456691</v>
       </c>
       <c r="C10">
         <v>3.115789386620634</v>
       </c>
       <c r="D10">
-        <v>0.3494463204787621</v>
+        <v>0.3494463204786058</v>
       </c>
       <c r="E10">
-        <v>2.547264252035987</v>
+        <v>2.547264252035973</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.575897741131513</v>
+        <v>4.57589774113157</v>
       </c>
       <c r="H10">
-        <v>2.677373298614953</v>
+        <v>2.677373298614924</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.829609054282002</v>
+        <v>6.829609054281889</v>
       </c>
       <c r="C11">
-        <v>3.40259317271898</v>
+        <v>3.402593172718753</v>
       </c>
       <c r="D11">
-        <v>0.3808860829217053</v>
+        <v>0.3808860829217338</v>
       </c>
       <c r="E11">
-        <v>2.803024684247518</v>
+        <v>2.803024684247461</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.987744636307497</v>
+        <v>4.987744636307468</v>
       </c>
       <c r="H11">
-        <v>2.908228344410006</v>
+        <v>2.908228344409977</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.045689884410535</v>
+        <v>7.045689884410308</v>
       </c>
       <c r="C12">
-        <v>3.514603945507929</v>
+        <v>3.514603945507872</v>
       </c>
       <c r="D12">
         <v>0.3931306817414253</v>
       </c>
       <c r="E12">
-        <v>2.904027578538702</v>
+        <v>2.904027578538688</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.998877447133736</v>
+        <v>6.99887744713368</v>
       </c>
       <c r="C13">
-        <v>3.490313995363806</v>
+        <v>3.490313995363579</v>
       </c>
       <c r="D13">
-        <v>0.3904771144533754</v>
+        <v>0.3904771144533612</v>
       </c>
       <c r="E13">
-        <v>2.882070202875383</v>
+        <v>2.882070202875269</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.114421094213981</v>
+        <v>5.114421094214066</v>
       </c>
       <c r="H13">
-        <v>2.979376080539538</v>
+        <v>2.979376080539566</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.847264337608806</v>
+        <v>6.84726433760892</v>
       </c>
       <c r="C14">
-        <v>3.411734820510674</v>
+        <v>3.411734820510389</v>
       </c>
       <c r="D14">
-        <v>0.38188616411081</v>
+        <v>0.3818861641105968</v>
       </c>
       <c r="E14">
         <v>2.811243994606457</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.000930901238007</v>
+        <v>5.000930901238092</v>
       </c>
       <c r="H14">
-        <v>2.915631409789341</v>
+        <v>2.915631409789356</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.755176430629717</v>
+        <v>6.755176430629945</v>
       </c>
       <c r="C15">
-        <v>3.364073298351229</v>
+        <v>3.364073298351514</v>
       </c>
       <c r="D15">
-        <v>0.3766706383443648</v>
+        <v>0.3766706383445779</v>
       </c>
       <c r="E15">
-        <v>2.768437516253599</v>
+        <v>2.768437516253613</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.932221083253978</v>
+        <v>4.932221083254007</v>
       </c>
       <c r="H15">
-        <v>2.87706390544173</v>
+        <v>2.877063905441659</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.238295451545468</v>
+        <v>6.238295451545525</v>
       </c>
       <c r="C16">
-        <v>3.097475024036271</v>
+        <v>3.097475024036783</v>
       </c>
       <c r="D16">
-        <v>0.3474346718127066</v>
+        <v>0.3474346718123229</v>
       </c>
       <c r="E16">
         <v>2.531068233948574</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.549724372617391</v>
+        <v>4.549724372617419</v>
       </c>
       <c r="H16">
-        <v>2.662726984964664</v>
+        <v>2.66272698496465</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>5.929792564006561</v>
       </c>
       <c r="C17">
-        <v>2.939090069043743</v>
+        <v>2.93909006904363</v>
       </c>
       <c r="D17">
-        <v>0.3300191004748854</v>
+        <v>0.3300191004752406</v>
       </c>
       <c r="E17">
         <v>2.391665618852599</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.324035839857515</v>
+        <v>4.324035839857572</v>
       </c>
       <c r="H17">
-        <v>2.536564373486542</v>
+        <v>2.536564373486584</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.755119945051717</v>
+        <v>5.755119945051888</v>
       </c>
       <c r="C18">
-        <v>2.849653880744427</v>
+        <v>2.849653880744484</v>
       </c>
       <c r="D18">
-        <v>0.3201709243697621</v>
+        <v>0.3201709243701032</v>
       </c>
       <c r="E18">
-        <v>2.313465223043636</v>
+        <v>2.313465223043664</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.197134953295802</v>
+        <v>4.197134953295887</v>
       </c>
       <c r="H18">
-        <v>2.465731162741662</v>
+        <v>2.46573116274169</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.696421582058406</v>
+        <v>5.69642158205852</v>
       </c>
       <c r="C19">
         <v>2.819637810398774</v>
       </c>
       <c r="D19">
-        <v>0.3168635850288126</v>
+        <v>0.3168635850282584</v>
       </c>
       <c r="E19">
-        <v>2.287302394868377</v>
+        <v>2.287302394868433</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.962338483814847</v>
+        <v>5.962338483814676</v>
       </c>
       <c r="C20">
-        <v>2.955773439262828</v>
+        <v>2.955773439262714</v>
       </c>
       <c r="D20">
-        <v>0.3318550826990361</v>
+        <v>0.331855082698894</v>
       </c>
       <c r="E20">
-        <v>2.406294035277782</v>
+        <v>2.40629403527771</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>4.347751668532197</v>
       </c>
       <c r="H20">
-        <v>2.549810623899859</v>
+        <v>2.549810623899873</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.891631495452998</v>
+        <v>6.891631495452941</v>
       </c>
       <c r="C21">
         <v>3.434715634554266</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.034094881340394</v>
+        <v>5.034094881340309</v>
       </c>
       <c r="H21">
-        <v>2.93425350377801</v>
+        <v>2.934253503777995</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.532790691157743</v>
+        <v>7.532790691157572</v>
       </c>
       <c r="C22">
-        <v>3.768133238245809</v>
+        <v>3.768133238246207</v>
       </c>
       <c r="D22">
-        <v>0.4207678726529167</v>
+        <v>0.4207678726527746</v>
       </c>
       <c r="E22">
-        <v>3.135057832639063</v>
+        <v>3.135057832639035</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.517672217109407</v>
+        <v>5.517672217109322</v>
       </c>
       <c r="H22">
-        <v>3.206272623128029</v>
+        <v>3.206272623127987</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>7.186968093466589</v>
       </c>
       <c r="C23">
-        <v>3.587989674559992</v>
+        <v>3.587989674559367</v>
       </c>
       <c r="D23">
-        <v>0.4011418074183979</v>
+        <v>0.4011418074183837</v>
       </c>
       <c r="E23">
-        <v>2.970551746877035</v>
+        <v>2.97055174687695</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.255846381744448</v>
+        <v>5.255846381744419</v>
       </c>
       <c r="H23">
-        <v>3.058881797490727</v>
+        <v>3.05888179749077</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.947616185668664</v>
+        <v>5.94761618566838</v>
       </c>
       <c r="C24">
-        <v>2.948225892293294</v>
+        <v>2.948225892293749</v>
       </c>
       <c r="D24">
-        <v>0.3310245286825477</v>
+        <v>0.3310245286824625</v>
       </c>
       <c r="E24">
-        <v>2.399674544117062</v>
+        <v>2.399674544117119</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.337020953783195</v>
+        <v>4.337020953783224</v>
       </c>
       <c r="H24">
-        <v>2.54381675372592</v>
+        <v>2.543816753725935</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.714218025813011</v>
+        <v>4.714218025813295</v>
       </c>
       <c r="C25">
-        <v>2.320232945194562</v>
+        <v>2.320232945195244</v>
       </c>
       <c r="D25">
-        <v>0.2616981591636431</v>
+        <v>0.2616981591637142</v>
       </c>
       <c r="E25">
-        <v>1.857893145960247</v>
+        <v>1.85789314596019</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.454692547526861</v>
+        <v>3.454692547526946</v>
       </c>
       <c r="H25">
-        <v>2.053017800647481</v>
+        <v>2.053017800647496</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.861793252840528</v>
+        <v>3.861793252840698</v>
       </c>
       <c r="C2">
         <v>1.891115580251949</v>
       </c>
       <c r="D2">
-        <v>0.2141409200848159</v>
+        <v>0.2141409200851712</v>
       </c>
       <c r="E2">
-        <v>1.497424344929797</v>
+        <v>1.497424344929811</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.307130596579611</v>
+        <v>3.307130596579668</v>
       </c>
       <c r="C3">
         <v>1.614016020697875</v>
       </c>
       <c r="D3">
-        <v>0.18339279584319</v>
+        <v>0.1833927958430905</v>
       </c>
       <c r="E3">
-        <v>1.268658850944576</v>
+        <v>1.268658850944476</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.49233460539466</v>
+        <v>2.492334605394632</v>
       </c>
       <c r="H3">
         <v>1.52344459432156</v>
@@ -491,13 +491,13 @@
         <v>2.974938628934126</v>
       </c>
       <c r="C4">
-        <v>1.448859633640211</v>
+        <v>1.448859633639927</v>
       </c>
       <c r="D4">
-        <v>0.1650653489916891</v>
+        <v>0.1650653489918028</v>
       </c>
       <c r="E4">
-        <v>1.133776737125928</v>
+        <v>1.133776737125913</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>2.273067413900463</v>
       </c>
       <c r="H4">
-        <v>1.403906099652161</v>
+        <v>1.403906099652147</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.841298452032788</v>
+        <v>2.841298452032731</v>
       </c>
       <c r="C5">
-        <v>1.382587410458029</v>
+        <v>1.382587410458086</v>
       </c>
       <c r="D5">
-        <v>0.1577129577520111</v>
+        <v>0.1577129577518264</v>
       </c>
       <c r="E5">
-        <v>1.079958877468272</v>
+        <v>1.079958877468258</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.18582354922215</v>
+        <v>2.185823549222135</v>
       </c>
       <c r="H5">
         <v>1.356488432323218</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.819202168861409</v>
+        <v>2.819202168861466</v>
       </c>
       <c r="C6">
-        <v>1.371639272480479</v>
+        <v>1.371639272480706</v>
       </c>
       <c r="D6">
-        <v>0.1564985122255251</v>
+        <v>0.1564985122254825</v>
       </c>
       <c r="E6">
-        <v>1.07108506120386</v>
+        <v>1.071085061203846</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.17145416944949</v>
+        <v>2.171454169449518</v>
       </c>
       <c r="H6">
-        <v>1.348687089532774</v>
+        <v>1.34868708953276</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973129760100051</v>
+        <v>2.973129760099937</v>
       </c>
       <c r="C7">
-        <v>1.447961962813849</v>
+        <v>1.447961962814077</v>
       </c>
       <c r="D7">
-        <v>0.1649657493070151</v>
+        <v>0.164965749307072</v>
       </c>
       <c r="E7">
-        <v>1.133046592345792</v>
+        <v>1.133046592345835</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>2.271882730544704</v>
       </c>
       <c r="H7">
-        <v>1.403261634677747</v>
+        <v>1.403261634677762</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.66856433471969</v>
+        <v>3.668564334719804</v>
       </c>
       <c r="C8">
-        <v>1.794392275430766</v>
+        <v>1.794392275430823</v>
       </c>
       <c r="D8">
-        <v>0.2034097553582939</v>
+        <v>0.2034097553584928</v>
       </c>
       <c r="E8">
-        <v>1.417220142165064</v>
+        <v>1.417220142164993</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>2.734562787923423</v>
       </c>
       <c r="H8">
-        <v>1.65604425467204</v>
+        <v>1.656044254672068</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.119189159244002</v>
+        <v>5.119189159243945</v>
       </c>
       <c r="C9">
-        <v>2.525493018276677</v>
+        <v>2.525493018276336</v>
       </c>
       <c r="D9">
-        <v>0.284400714389065</v>
+        <v>0.2844007143889371</v>
       </c>
       <c r="E9">
-        <v>2.033061255751647</v>
+        <v>2.033061255751633</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.740673479834982</v>
+        <v>3.740673479834868</v>
       </c>
       <c r="H9">
-        <v>2.211625456073321</v>
+        <v>2.211625456073264</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.273899781456691</v>
+        <v>6.273899781456862</v>
       </c>
       <c r="C10">
         <v>3.115789386620634</v>
       </c>
       <c r="D10">
-        <v>0.3494463204786058</v>
+        <v>0.3494463204787621</v>
       </c>
       <c r="E10">
-        <v>2.547264252035973</v>
+        <v>2.547264252035987</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.57589774113157</v>
+        <v>4.575897741131513</v>
       </c>
       <c r="H10">
-        <v>2.677373298614924</v>
+        <v>2.677373298614953</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.829609054281889</v>
+        <v>6.829609054282002</v>
       </c>
       <c r="C11">
-        <v>3.402593172718753</v>
+        <v>3.40259317271898</v>
       </c>
       <c r="D11">
-        <v>0.3808860829217338</v>
+        <v>0.3808860829217053</v>
       </c>
       <c r="E11">
-        <v>2.803024684247461</v>
+        <v>2.803024684247518</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.987744636307468</v>
+        <v>4.987744636307497</v>
       </c>
       <c r="H11">
-        <v>2.908228344409977</v>
+        <v>2.908228344410006</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.045689884410308</v>
+        <v>7.045689884410535</v>
       </c>
       <c r="C12">
-        <v>3.514603945507872</v>
+        <v>3.514603945507929</v>
       </c>
       <c r="D12">
         <v>0.3931306817414253</v>
       </c>
       <c r="E12">
-        <v>2.904027578538688</v>
+        <v>2.904027578538702</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.99887744713368</v>
+        <v>6.998877447133736</v>
       </c>
       <c r="C13">
-        <v>3.490313995363579</v>
+        <v>3.490313995363806</v>
       </c>
       <c r="D13">
-        <v>0.3904771144533612</v>
+        <v>0.3904771144533754</v>
       </c>
       <c r="E13">
-        <v>2.882070202875269</v>
+        <v>2.882070202875383</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.114421094214066</v>
+        <v>5.114421094213981</v>
       </c>
       <c r="H13">
-        <v>2.979376080539566</v>
+        <v>2.979376080539538</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.84726433760892</v>
+        <v>6.847264337608806</v>
       </c>
       <c r="C14">
-        <v>3.411734820510389</v>
+        <v>3.411734820510674</v>
       </c>
       <c r="D14">
-        <v>0.3818861641105968</v>
+        <v>0.38188616411081</v>
       </c>
       <c r="E14">
         <v>2.811243994606457</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.000930901238092</v>
+        <v>5.000930901238007</v>
       </c>
       <c r="H14">
-        <v>2.915631409789356</v>
+        <v>2.915631409789341</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.755176430629945</v>
+        <v>6.755176430629717</v>
       </c>
       <c r="C15">
-        <v>3.364073298351514</v>
+        <v>3.364073298351229</v>
       </c>
       <c r="D15">
-        <v>0.3766706383445779</v>
+        <v>0.3766706383443648</v>
       </c>
       <c r="E15">
-        <v>2.768437516253613</v>
+        <v>2.768437516253599</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.932221083254007</v>
+        <v>4.932221083253978</v>
       </c>
       <c r="H15">
-        <v>2.877063905441659</v>
+        <v>2.87706390544173</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.238295451545525</v>
+        <v>6.238295451545468</v>
       </c>
       <c r="C16">
-        <v>3.097475024036783</v>
+        <v>3.097475024036271</v>
       </c>
       <c r="D16">
-        <v>0.3474346718123229</v>
+        <v>0.3474346718127066</v>
       </c>
       <c r="E16">
         <v>2.531068233948574</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.549724372617419</v>
+        <v>4.549724372617391</v>
       </c>
       <c r="H16">
-        <v>2.66272698496465</v>
+        <v>2.662726984964664</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>5.929792564006561</v>
       </c>
       <c r="C17">
-        <v>2.93909006904363</v>
+        <v>2.939090069043743</v>
       </c>
       <c r="D17">
-        <v>0.3300191004752406</v>
+        <v>0.3300191004748854</v>
       </c>
       <c r="E17">
         <v>2.391665618852599</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.324035839857572</v>
+        <v>4.324035839857515</v>
       </c>
       <c r="H17">
-        <v>2.536564373486584</v>
+        <v>2.536564373486542</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.755119945051888</v>
+        <v>5.755119945051717</v>
       </c>
       <c r="C18">
-        <v>2.849653880744484</v>
+        <v>2.849653880744427</v>
       </c>
       <c r="D18">
-        <v>0.3201709243701032</v>
+        <v>0.3201709243697621</v>
       </c>
       <c r="E18">
-        <v>2.313465223043664</v>
+        <v>2.313465223043636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.197134953295887</v>
+        <v>4.197134953295802</v>
       </c>
       <c r="H18">
-        <v>2.46573116274169</v>
+        <v>2.465731162741662</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.69642158205852</v>
+        <v>5.696421582058406</v>
       </c>
       <c r="C19">
         <v>2.819637810398774</v>
       </c>
       <c r="D19">
-        <v>0.3168635850282584</v>
+        <v>0.3168635850288126</v>
       </c>
       <c r="E19">
-        <v>2.287302394868433</v>
+        <v>2.287302394868377</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.962338483814676</v>
+        <v>5.962338483814847</v>
       </c>
       <c r="C20">
-        <v>2.955773439262714</v>
+        <v>2.955773439262828</v>
       </c>
       <c r="D20">
-        <v>0.331855082698894</v>
+        <v>0.3318550826990361</v>
       </c>
       <c r="E20">
-        <v>2.40629403527771</v>
+        <v>2.406294035277782</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>4.347751668532197</v>
       </c>
       <c r="H20">
-        <v>2.549810623899873</v>
+        <v>2.549810623899859</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.891631495452941</v>
+        <v>6.891631495452998</v>
       </c>
       <c r="C21">
         <v>3.434715634554266</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.034094881340309</v>
+        <v>5.034094881340394</v>
       </c>
       <c r="H21">
-        <v>2.934253503777995</v>
+        <v>2.93425350377801</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.532790691157572</v>
+        <v>7.532790691157743</v>
       </c>
       <c r="C22">
-        <v>3.768133238246207</v>
+        <v>3.768133238245809</v>
       </c>
       <c r="D22">
-        <v>0.4207678726527746</v>
+        <v>0.4207678726529167</v>
       </c>
       <c r="E22">
-        <v>3.135057832639035</v>
+        <v>3.135057832639063</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.517672217109322</v>
+        <v>5.517672217109407</v>
       </c>
       <c r="H22">
-        <v>3.206272623127987</v>
+        <v>3.206272623128029</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>7.186968093466589</v>
       </c>
       <c r="C23">
-        <v>3.587989674559367</v>
+        <v>3.587989674559992</v>
       </c>
       <c r="D23">
-        <v>0.4011418074183837</v>
+        <v>0.4011418074183979</v>
       </c>
       <c r="E23">
-        <v>2.97055174687695</v>
+        <v>2.970551746877035</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.255846381744419</v>
+        <v>5.255846381744448</v>
       </c>
       <c r="H23">
-        <v>3.05888179749077</v>
+        <v>3.058881797490727</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.94761618566838</v>
+        <v>5.947616185668664</v>
       </c>
       <c r="C24">
-        <v>2.948225892293749</v>
+        <v>2.948225892293294</v>
       </c>
       <c r="D24">
-        <v>0.3310245286824625</v>
+        <v>0.3310245286825477</v>
       </c>
       <c r="E24">
-        <v>2.399674544117119</v>
+        <v>2.399674544117062</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.337020953783224</v>
+        <v>4.337020953783195</v>
       </c>
       <c r="H24">
-        <v>2.543816753725935</v>
+        <v>2.54381675372592</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.714218025813295</v>
+        <v>4.714218025813011</v>
       </c>
       <c r="C25">
-        <v>2.320232945195244</v>
+        <v>2.320232945194562</v>
       </c>
       <c r="D25">
-        <v>0.2616981591637142</v>
+        <v>0.2616981591636431</v>
       </c>
       <c r="E25">
-        <v>1.85789314596019</v>
+        <v>1.857893145960247</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.454692547526946</v>
+        <v>3.454692547526861</v>
       </c>
       <c r="H25">
-        <v>2.053017800647496</v>
+        <v>2.053017800647481</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.861793252840698</v>
+        <v>3.861126955409873</v>
       </c>
       <c r="C2">
-        <v>1.891115580251949</v>
+        <v>1.889308295957107</v>
       </c>
       <c r="D2">
-        <v>0.2141409200851712</v>
+        <v>0.2141218590921028</v>
       </c>
       <c r="E2">
-        <v>1.497424344929811</v>
+        <v>1.497274281066026</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.865537140580145</v>
+        <v>0.9432321113227857</v>
       </c>
       <c r="H2">
-        <v>1.727954727288136</v>
+        <v>1.916773094536239</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.722551504009843</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.307130596579668</v>
+        <v>3.306678271281385</v>
       </c>
       <c r="C3">
-        <v>1.614016020697875</v>
+        <v>1.612519747420492</v>
       </c>
       <c r="D3">
-        <v>0.1833927958430905</v>
+        <v>0.1833802591732905</v>
       </c>
       <c r="E3">
-        <v>1.268658850944476</v>
+        <v>1.268561541276895</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.492334605394632</v>
+        <v>0.8149718136806854</v>
       </c>
       <c r="H3">
-        <v>1.52344459432156</v>
+        <v>1.673241114037268</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.518758836435154</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.974938628934126</v>
+        <v>2.974596602511895</v>
       </c>
       <c r="C4">
-        <v>1.448859633639927</v>
+        <v>1.447540557761442</v>
       </c>
       <c r="D4">
-        <v>0.1650653489918028</v>
+        <v>0.1650560666132748</v>
       </c>
       <c r="E4">
-        <v>1.133776737125913</v>
+        <v>1.133705196038179</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.273067413900463</v>
+        <v>0.7394907505126298</v>
       </c>
       <c r="H4">
-        <v>1.403906099652147</v>
+        <v>1.530287819925206</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.399645112433959</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.841298452032731</v>
+        <v>2.84099703171205</v>
       </c>
       <c r="C5">
-        <v>1.382587410458086</v>
+        <v>1.381337736893613</v>
       </c>
       <c r="D5">
-        <v>0.1577129577518264</v>
+        <v>0.1577048513152164</v>
       </c>
       <c r="E5">
-        <v>1.079958877468258</v>
+        <v>1.079896553403273</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.185823549222135</v>
+        <v>0.7094273227976942</v>
       </c>
       <c r="H5">
-        <v>1.356488432323218</v>
+        <v>1.473440022025159</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.352397355497189</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.819202168861466</v>
+        <v>2.818907253586985</v>
       </c>
       <c r="C6">
-        <v>1.371639272480706</v>
+        <v>1.370400970435924</v>
       </c>
       <c r="D6">
-        <v>0.1564985122254825</v>
+        <v>0.1564905929658948</v>
       </c>
       <c r="E6">
-        <v>1.071085061203846</v>
+        <v>1.071024199505317</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.171454169449518</v>
+        <v>0.7044739527272412</v>
       </c>
       <c r="H6">
-        <v>1.34868708953276</v>
+        <v>1.464078880188922</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.344624053874099</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973129760099937</v>
+        <v>2.972788297748366</v>
       </c>
       <c r="C7">
-        <v>1.447961962814077</v>
+        <v>1.44664383350846</v>
       </c>
       <c r="D7">
-        <v>0.164965749307072</v>
+        <v>0.1649564833504371</v>
       </c>
       <c r="E7">
-        <v>1.133046592345835</v>
+        <v>1.132975180323371</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.271882730544704</v>
+        <v>0.7390826426458403</v>
       </c>
       <c r="H7">
-        <v>1.403261634677762</v>
+        <v>1.529515755961413</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.399002950907175</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.668564334719804</v>
+        <v>3.667976830083603</v>
       </c>
       <c r="C8">
-        <v>1.794392275430823</v>
+        <v>1.792695520012842</v>
       </c>
       <c r="D8">
-        <v>0.2034097553584928</v>
+        <v>0.2033931260761648</v>
       </c>
       <c r="E8">
-        <v>1.417220142164993</v>
+        <v>1.417089904449128</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.734562787923423</v>
+        <v>0.8982467288318645</v>
       </c>
       <c r="H8">
-        <v>1.656044254672068</v>
+        <v>1.831278277735251</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.650892195521351</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.119189159243945</v>
+        <v>5.117895612806251</v>
       </c>
       <c r="C9">
-        <v>2.525493018276336</v>
+        <v>2.522906376752928</v>
       </c>
       <c r="D9">
-        <v>0.2844007143889371</v>
+        <v>0.2843613510793404</v>
       </c>
       <c r="E9">
-        <v>2.033061255751633</v>
+        <v>2.032738866606238</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.740673479834868</v>
+        <v>1.243218309458371</v>
       </c>
       <c r="H9">
-        <v>2.211625456073264</v>
+        <v>2.48862740260833</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.204552136874511</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.273899781456862</v>
+        <v>6.27184189180042</v>
       </c>
       <c r="C10">
-        <v>3.115789386620634</v>
+        <v>3.112385362768578</v>
       </c>
       <c r="D10">
-        <v>0.3494463204787621</v>
+        <v>0.3493805535493237</v>
       </c>
       <c r="E10">
-        <v>2.547264252035987</v>
+        <v>2.546701932196825</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.575897741131513</v>
+        <v>1.52879754066015</v>
       </c>
       <c r="H10">
-        <v>2.677373298614953</v>
+        <v>3.035107445510988</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.668701709494272</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.829609054282002</v>
+        <v>6.827111450443056</v>
       </c>
       <c r="C11">
-        <v>3.40259317271898</v>
+        <v>3.398755894638782</v>
       </c>
       <c r="D11">
-        <v>0.3808860829217053</v>
+        <v>0.3808045088190823</v>
       </c>
       <c r="E11">
-        <v>2.803024684247518</v>
+        <v>2.802311116013584</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.987744636307497</v>
+        <v>1.669417797614074</v>
       </c>
       <c r="H11">
-        <v>2.908228344410006</v>
+        <v>3.304755769650768</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.898760723495315</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.045689884410535</v>
+        <v>7.043007524351481</v>
       </c>
       <c r="C12">
-        <v>3.514603945507929</v>
+        <v>3.510590430776801</v>
       </c>
       <c r="D12">
-        <v>0.3931306817414253</v>
+        <v>0.3930423525694096</v>
       </c>
       <c r="E12">
-        <v>2.904027578538702</v>
+        <v>2.903247742762659</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.149554358414548</v>
+        <v>1.724634906972227</v>
       </c>
       <c r="H12">
-        <v>2.999119882698764</v>
+        <v>3.410723833984321</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.989337333905141</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.998877447133736</v>
+        <v>6.996235792535401</v>
       </c>
       <c r="C13">
-        <v>3.490313995363806</v>
+        <v>3.486339046458454</v>
       </c>
       <c r="D13">
-        <v>0.3904771144533754</v>
+        <v>0.3903902789661515</v>
       </c>
       <c r="E13">
-        <v>2.882070202875383</v>
+        <v>2.88130510262603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.114421094213981</v>
+        <v>1.712647190940231</v>
       </c>
       <c r="H13">
-        <v>2.979376080539538</v>
+        <v>3.387714129190158</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.969662029489697</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.847264337608806</v>
+        <v>6.844751935853196</v>
       </c>
       <c r="C14">
-        <v>3.411734820510674</v>
+        <v>3.407883311496732</v>
       </c>
       <c r="D14">
-        <v>0.38188616411081</v>
+        <v>0.3818040513163936</v>
       </c>
       <c r="E14">
-        <v>2.811243994606457</v>
+        <v>2.81052517705524</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.000930901238007</v>
+        <v>1.673918200609023</v>
       </c>
       <c r="H14">
-        <v>2.915631409789341</v>
+        <v>3.313390837760835</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.90613817545136</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.755176430629717</v>
+        <v>6.752740638941191</v>
       </c>
       <c r="C15">
-        <v>3.364073298351229</v>
+        <v>3.360295691690567</v>
       </c>
       <c r="D15">
-        <v>0.3766706383443648</v>
+        <v>0.3765913098627038</v>
       </c>
       <c r="E15">
-        <v>2.768437516253599</v>
+        <v>2.767745764180276</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.932221083253978</v>
+        <v>1.650466655412629</v>
       </c>
       <c r="H15">
-        <v>2.87706390544173</v>
+        <v>3.26839704640949</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.867704041239847</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.238295451545468</v>
+        <v>6.236264063024464</v>
       </c>
       <c r="C16">
-        <v>3.097475024036271</v>
+        <v>3.09409782253266</v>
       </c>
       <c r="D16">
-        <v>0.3474346718127066</v>
+        <v>0.3473698445177718</v>
       </c>
       <c r="E16">
-        <v>2.531068233948574</v>
+        <v>2.530514731835936</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.549724372617391</v>
+        <v>1.519856912664039</v>
       </c>
       <c r="H16">
-        <v>2.662726984964664</v>
+        <v>3.017974526360661</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.654105755368448</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.929792564006561</v>
+        <v>5.927982719721342</v>
       </c>
       <c r="C17">
-        <v>2.939090069043743</v>
+        <v>2.935940784386901</v>
       </c>
       <c r="D17">
-        <v>0.3300191004748854</v>
+        <v>0.3299620652768738</v>
       </c>
       <c r="E17">
-        <v>2.391665618852599</v>
+        <v>2.391184467596716</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.324035839857515</v>
+        <v>1.442741958680273</v>
       </c>
       <c r="H17">
-        <v>2.536564373486542</v>
+        <v>2.870259658097041</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.528376461920431</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.755119945051717</v>
+        <v>5.753429256438949</v>
       </c>
       <c r="C18">
-        <v>2.849653880744427</v>
+        <v>2.846630165518036</v>
       </c>
       <c r="D18">
-        <v>0.3201709243697621</v>
+        <v>0.3201180311720435</v>
       </c>
       <c r="E18">
-        <v>2.313465223043636</v>
+        <v>2.313021959508589</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.197134953295802</v>
+        <v>1.399363926949974</v>
       </c>
       <c r="H18">
-        <v>2.465731162741662</v>
+        <v>2.787218201898696</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.457786266536459</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.696421582058406</v>
+        <v>5.694769938989111</v>
       </c>
       <c r="C19">
-        <v>2.819637810398774</v>
+        <v>2.816655743789909</v>
       </c>
       <c r="D19">
-        <v>0.3168635850288126</v>
+        <v>0.3168120412605049</v>
       </c>
       <c r="E19">
-        <v>2.287302394868377</v>
+        <v>2.286871387371377</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.154635313968782</v>
+        <v>1.384833484072487</v>
       </c>
       <c r="H19">
-        <v>2.442026491834213</v>
+        <v>2.759410022979523</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.434162896724217</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.962338483814847</v>
+        <v>5.960505941804797</v>
       </c>
       <c r="C20">
-        <v>2.955773439262828</v>
+        <v>2.952600484058507</v>
       </c>
       <c r="D20">
-        <v>0.3318550826990361</v>
+        <v>0.3317972545153935</v>
       </c>
       <c r="E20">
-        <v>2.406294035277782</v>
+        <v>2.405805584702648</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.347751668532197</v>
+        <v>1.450847211970654</v>
       </c>
       <c r="H20">
-        <v>2.549810623899859</v>
+        <v>2.885780159305625</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.541577250067704</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.891631495452998</v>
+        <v>6.889081674879208</v>
       </c>
       <c r="C21">
-        <v>3.434715634554266</v>
+        <v>3.430828232306396</v>
       </c>
       <c r="D21">
-        <v>0.3843996448301823</v>
+        <v>0.3843161680190263</v>
       </c>
       <c r="E21">
-        <v>2.831924877094423</v>
+        <v>2.831192740330991</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.034094881340394</v>
+        <v>1.685236395801041</v>
       </c>
       <c r="H21">
-        <v>2.93425350377801</v>
+        <v>3.335108795858673</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.924695811861838</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.532790691157743</v>
+        <v>7.529661605314118</v>
       </c>
       <c r="C22">
-        <v>3.768133238245809</v>
+        <v>3.76370521227534</v>
       </c>
       <c r="D22">
-        <v>0.4207678726529167</v>
+        <v>0.4206629619969107</v>
       </c>
       <c r="E22">
-        <v>3.135057832639063</v>
+        <v>3.134111336288726</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.517672217109407</v>
+        <v>1.850194261565008</v>
       </c>
       <c r="H22">
-        <v>3.206272623128029</v>
+        <v>3.651850284315429</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.195767943871218</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.186968093466589</v>
+        <v>7.184160563747753</v>
       </c>
       <c r="C23">
-        <v>3.587989674559992</v>
+        <v>3.583858448478168</v>
       </c>
       <c r="D23">
-        <v>0.4011418074183979</v>
+        <v>0.4010488665875158</v>
       </c>
       <c r="E23">
-        <v>2.970551746877035</v>
+        <v>2.969726123801465</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.255846381744448</v>
+        <v>1.760897832542923</v>
       </c>
       <c r="H23">
-        <v>3.058881797490727</v>
+        <v>3.480341110049437</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.048891591821672</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.947616185668664</v>
+        <v>5.945793930535672</v>
       </c>
       <c r="C24">
-        <v>2.948225892293294</v>
+        <v>2.945063655328511</v>
       </c>
       <c r="D24">
-        <v>0.3310245286825477</v>
+        <v>0.3309670600441024</v>
       </c>
       <c r="E24">
-        <v>2.399674544117062</v>
+        <v>2.399189404914907</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.337020953783195</v>
+        <v>1.447179878419917</v>
       </c>
       <c r="H24">
-        <v>2.54381675372592</v>
+        <v>2.878757538424651</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.535603952151746</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.714218025813011</v>
+        <v>4.713148694971835</v>
       </c>
       <c r="C25">
-        <v>2.320232945194562</v>
+        <v>2.317909101694852</v>
       </c>
       <c r="D25">
-        <v>0.2616981591636431</v>
+        <v>0.2616662226783006</v>
       </c>
       <c r="E25">
-        <v>1.857893145960247</v>
+        <v>1.857635127998194</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.454692547526861</v>
+        <v>1.145287475836369</v>
       </c>
       <c r="H25">
-        <v>2.053017800647481</v>
+        <v>2.301654667036843</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.046489579781664</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,34 +409,40 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.861126955409873</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.889308295957107</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2141218590921028</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.497274281066026</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9432321113227857</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.916773094536239</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.722551504009843</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +456,40 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.306678271281385</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.612519747420492</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1833802591732905</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.268561541276895</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8149718136806854</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.673241114037268</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.518758836435154</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,34 +503,40 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.974596602511895</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.447540557761442</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1650560666132748</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.133705196038179</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7394907505126298</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.530287819925206</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.399645112433959</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -532,34 +550,40 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.84099703171205</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.381337736893613</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1577048513152164</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.079896553403273</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7094273227976942</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.473440022025159</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.352397355497189</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -573,34 +597,40 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.818907253586985</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.370400970435924</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1564905929658948</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.071024199505317</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7044739527272412</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.464078880188922</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.344624053874099</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -614,34 +644,40 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.972788297748366</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.44664383350846</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1649564833504371</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.132975180323371</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7390826426458403</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.529515755961413</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.399002950907175</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -655,34 +691,40 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667976830083603</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.792695520012842</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2033931260761648</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.417089904449128</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8982467288318645</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.831278277735251</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.650892195521351</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -696,34 +738,40 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.117895612806251</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.522906376752928</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2843613510793404</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.032738866606238</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.243218309458371</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.48862740260833</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.204552136874511</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -737,34 +785,40 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.27184189180042</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.112385362768578</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3493805535493237</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.546701932196825</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.52879754066015</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3.035107445510988</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.668701709494272</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -778,34 +832,40 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.827111450443056</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.398755894638782</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3808045088190823</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.802311116013584</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.669417797614074</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.304755769650768</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.898760723495315</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -819,34 +879,40 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.043007524351481</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3.510590430776801</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3930423525694096</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.903247742762659</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.724634906972227</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.410723833984321</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.989337333905141</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -860,34 +926,40 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.996235792535401</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3.486339046458454</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3903902789661515</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2.88130510262603</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.712647190940231</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.387714129190158</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.969662029489697</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -901,34 +973,40 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.844751935853196</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3.407883311496732</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3818040513163936</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2.81052517705524</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.673918200609023</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3.313390837760835</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.90613817545136</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -942,34 +1020,40 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.752740638941191</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3.360295691690567</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3765913098627038</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.767745764180276</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.650466655412629</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3.26839704640949</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.867704041239847</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -983,34 +1067,40 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.236264063024464</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3.09409782253266</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3473698445177718</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.530514731835936</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.519856912664039</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3.017974526360661</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.654105755368448</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1024,34 +1114,40 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.927982719721342</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.935940784386901</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3299620652768738</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.391184467596716</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.442741958680273</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2.870259658097041</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.528376461920431</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1065,34 +1161,40 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.753429256438949</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.846630165518036</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3201180311720435</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.313021959508589</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.399363926949974</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.787218201898696</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.457786266536459</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1106,34 +1208,40 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.694769938989111</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.816655743789909</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3168120412605049</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.286871387371377</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.384833484072487</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.759410022979523</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.434162896724217</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1147,34 +1255,40 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.960505941804797</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.952600484058507</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3317972545153935</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.405805584702648</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.450847211970654</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.885780159305625</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.541577250067704</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1188,34 +1302,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.889081674879208</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3.430828232306396</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3843161680190263</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.831192740330991</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.685236395801041</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.335108795858673</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.924695811861838</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1229,34 +1349,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.529661605314118</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3.76370521227534</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4206629619969107</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.134111336288726</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.850194261565008</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.651850284315429</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.195767943871218</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1270,34 +1396,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.184160563747753</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3.583858448478168</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4010488665875158</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2.969726123801465</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.760897832542923</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3.480341110049437</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.048891591821672</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1311,34 +1443,40 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.945793930535672</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.945063655328511</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3309670600441024</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.399189404914907</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.447179878419917</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2.878757538424651</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.535603952151746</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1352,34 +1490,40 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.713148694971835</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.317909101694852</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2616662226783006</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.857635127998194</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.145287475836369</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2.301654667036843</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.046489579781664</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4813105966770479</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9063146887343123</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3927929490316302</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.131547378589449</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008772129928290518</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.03366135760174</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0493366426324009</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.211956122748177</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4608661751334253</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4184286495552385</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8074071195833028</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3609007163332336</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.121575661533992</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008883049979661191</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.944718461084193</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04609201376533179</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.071410059903599</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4145327466476445</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3824342012344317</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.7480766874512597</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3420298581997088</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1156741672415365</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008952477919478065</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.286889481768071</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04417010480365491</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9888578599802713</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3872671664799725</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.3683507192423718</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.7242053286561259</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3345008119038795</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1133194124187042</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008981135075674603</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.021049786890188</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04340288710560358</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.956053110001875</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3764223506747797</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.3660454856762527</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.7202587605051178</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.3332598553898123</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.1129312869056385</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008985916481411093</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.977028886353111</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04327640952046607</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9506535240408027</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3746367941107565</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3822419904951886</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7477535667518111</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.341927689284347</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1156422139514959</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008952862882395898</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.28329584295119</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04415969527910946</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9884121901529568</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3871198710974681</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.4590394694807571</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.8718919908584155</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3816375819316136</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1280597505677576</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008810121045507302</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.655649416138544</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04820222047906242</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.16265167295191</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4446247984861387</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.634180304151073</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.128773087236539</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.4660686061669992</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1544466398597777</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0008539053001089963</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.45713070118532</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05677496287827921</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.539492692154909</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.5684040451335619</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.7840285240952767</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.329499658739564</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5335882274361836</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1755302249047475</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0008342634989544696</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.62259834884517</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06360844826621559</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.846699259963714</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.6687030869210986</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.8585148237709461</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.424452606703198</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5659016872973268</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1856141777312459</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0008253152925669164</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.64184377686325</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06687180198096598</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.995495145425025</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.717089031364722</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.8878067545489614</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.461036935570121</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.578408904573422</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1895161466514494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0008219176806538201</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.03381248320352</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06813368894410132</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.053392228470273</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7358823700844184</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.8814467479984103</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.453128069053832</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5757024751050324</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1886718552723821</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0008226499522574813</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.949108595751</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06786068798051303</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.040849562071628</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7318126330146981</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.8609017974782489</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.427449178382233</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.5669249751437633</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1859334440043696</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0008250359977957965</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.67396404346601</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06697506995193692</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.000225679460726</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.718625266635911</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.8484646216698479</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.411805268083867</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.5615851113831809</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1842673579763812</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000826496095123139</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.50624740205279</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.06643613222945532</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.97555263844589</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.7106113376323293</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.7793022083678522</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.323376022390278</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5315119708903921</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.174882154154119</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0008348474320458304</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.55676464712039</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06339861048890327</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.837177510004182</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.665602489305769</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.7386076944361264</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.270128723040955</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5134994286813992</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1692591231596907</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0008399625947214956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.9837560005742</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06157737870569235</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.754770068072446</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.6387462508580484</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.71578379304853</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.23983784115552</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.503286712135008</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1660704360454375</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0008429039727713532</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.6573169792</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06054415455822948</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.708205536036985</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6235538584911495</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.7081511925816244</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.229636617737242</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.4998530817328515</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1649982748313903</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0008438999482631865</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.54729947319092</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06019667137349671</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.692575927011461</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.61845166547198</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.7428782308672339</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.275761563566675</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.5154013422881008</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1698529083180702</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0008394182002625824</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.04442142858917</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.06176974599885199</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.763454490053874</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.6415782997645891</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.8669053063694037</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.434973732726348</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.5694954267088121</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.1867354075440133</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0008243354702459423</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.75460810979502</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06723445411245166</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.012113565173905</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.7224852863280233</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9544000688221672</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.542749518250503</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.606452221332205</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.1982627207910355</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0008144205100054754</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.90795609671022</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0709605632390975</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.183821451870955</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.7781506966688383</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9070458445654026</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.484847547058109</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.5865654410410457</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1920604613121739</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0008197203231979125</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.2887183228554</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.06895625505938341</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.09124072105007</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.7481577710103977</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.7409457528469261</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.273213961934289</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.5145410449258065</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1695843216975916</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0008396643185923928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.01698535107136</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06168273396212953</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.75952575006562</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.6402971645686293</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.5835904494875308</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.057481535773832</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.4423849134106774</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1470472512238459</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000861168833764393</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.68366663457593</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05437332603891676</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.432946080021537</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5334905728976196</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4813105966770479</v>
+        <v>0.7340267269605079</v>
       </c>
       <c r="C2">
-        <v>0.9063146887343123</v>
+        <v>0.7680793040000253</v>
       </c>
       <c r="D2">
-        <v>0.3927929490316302</v>
+        <v>0.5963715833518961</v>
       </c>
       <c r="E2">
-        <v>0.131547378589449</v>
+        <v>0.2075951406501559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008772129928290518</v>
+        <v>0.002701280903774335</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.03366135760174</v>
+        <v>6.021838378453396</v>
       </c>
       <c r="J2">
-        <v>0.0493366426324009</v>
+        <v>0.0828971149347808</v>
       </c>
       <c r="K2">
-        <v>1.211956122748177</v>
+        <v>1.445391888335763</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4608661751334253</v>
+        <v>0.6302291079695408</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4184286495552385</v>
+        <v>0.738542070033489</v>
       </c>
       <c r="C3">
-        <v>0.8074071195833028</v>
+        <v>0.7430314300875409</v>
       </c>
       <c r="D3">
-        <v>0.3609007163332336</v>
+        <v>0.5917118223406561</v>
       </c>
       <c r="E3">
-        <v>0.121575661533992</v>
+        <v>0.2061175895282794</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008883049979661191</v>
+        <v>0.002707340933266114</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.944718461084193</v>
+        <v>5.688095662163022</v>
       </c>
       <c r="J3">
-        <v>0.04609201376533179</v>
+        <v>0.08238962656462689</v>
       </c>
       <c r="K3">
-        <v>1.071410059903599</v>
+        <v>1.430652675570428</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4145327466476445</v>
+        <v>0.6250162470212217</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3824342012344317</v>
+        <v>0.7423110122064003</v>
       </c>
       <c r="C4">
-        <v>0.7480766874512597</v>
+        <v>0.7279255319842832</v>
       </c>
       <c r="D4">
-        <v>0.3420298581997088</v>
+        <v>0.5891234622513224</v>
       </c>
       <c r="E4">
-        <v>0.1156741672415365</v>
+        <v>0.2052959573583593</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008952477919478065</v>
+        <v>0.002711248263816709</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.286889481768071</v>
+        <v>5.482372429035081</v>
       </c>
       <c r="J4">
-        <v>0.04417010480365491</v>
+        <v>0.08210526408340968</v>
       </c>
       <c r="K4">
-        <v>0.9888578599802713</v>
+        <v>1.422894880972621</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3872671664799725</v>
+        <v>0.6222538927145891</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3683507192423718</v>
+        <v>0.7440963741009341</v>
       </c>
       <c r="C5">
-        <v>0.7242053286561259</v>
+        <v>0.7218380456889122</v>
       </c>
       <c r="D5">
-        <v>0.3345008119038795</v>
+        <v>0.588137156271145</v>
       </c>
       <c r="E5">
-        <v>0.1133194124187042</v>
+        <v>0.2049826248164592</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008981135075674603</v>
+        <v>0.002712887599775284</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.021049786890188</v>
+        <v>5.398326946486975</v>
       </c>
       <c r="J5">
-        <v>0.04340288710560358</v>
+        <v>0.08199622328440626</v>
       </c>
       <c r="K5">
-        <v>0.956053110001875</v>
+        <v>1.420057208277342</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3764223506747797</v>
+        <v>0.6212381459126064</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3660454856762527</v>
+        <v>0.7444078689928233</v>
       </c>
       <c r="C6">
-        <v>0.7202587605051178</v>
+        <v>0.7208313331616125</v>
       </c>
       <c r="D6">
-        <v>0.3332598553898123</v>
+        <v>0.5879775132323886</v>
       </c>
       <c r="E6">
-        <v>0.1129312869056385</v>
+        <v>0.2049318931533612</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008985916481411093</v>
+        <v>0.002713162658438179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.977028886353111</v>
+        <v>5.384358204187834</v>
       </c>
       <c r="J6">
-        <v>0.04327640952046607</v>
+        <v>0.08197852993896504</v>
       </c>
       <c r="K6">
-        <v>0.9506535240408027</v>
+        <v>1.419605529778494</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3746367941107565</v>
+        <v>0.6210761133040137</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3822419904951886</v>
+        <v>0.7423340814749793</v>
       </c>
       <c r="C7">
-        <v>0.7477535667518111</v>
+        <v>0.7278431581735276</v>
       </c>
       <c r="D7">
-        <v>0.341927689284347</v>
+        <v>0.5891098834882769</v>
       </c>
       <c r="E7">
-        <v>0.1156422139514959</v>
+        <v>0.2052916446787307</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008952862882395898</v>
+        <v>0.002711270181691287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.28329584295119</v>
+        <v>5.481239831443446</v>
       </c>
       <c r="J7">
-        <v>0.04415969527910946</v>
+        <v>0.08210376584169055</v>
       </c>
       <c r="K7">
-        <v>0.9884121901529568</v>
+        <v>1.422855302100714</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3871198710974681</v>
+        <v>0.622239749254625</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4590394694807571</v>
+        <v>0.7353761265793821</v>
       </c>
       <c r="C8">
-        <v>0.8718919908584155</v>
+        <v>0.7593856937097883</v>
       </c>
       <c r="D8">
-        <v>0.3816375819316136</v>
+        <v>0.594708215051341</v>
       </c>
       <c r="E8">
-        <v>0.1280597505677576</v>
+        <v>0.2070678954630907</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008810121045507302</v>
+        <v>0.002703331815378729</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.655649416138544</v>
+        <v>5.906924916223318</v>
       </c>
       <c r="J8">
-        <v>0.04820222047906242</v>
+        <v>0.08271647344191635</v>
       </c>
       <c r="K8">
-        <v>1.16265167295191</v>
+        <v>1.440040865160853</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4446247984861387</v>
+        <v>0.628340547090211</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.634180304151073</v>
+        <v>0.7296900451270005</v>
       </c>
       <c r="C9">
-        <v>1.128773087236539</v>
+        <v>0.8234384501483873</v>
       </c>
       <c r="D9">
-        <v>0.4660686061669992</v>
+        <v>0.6078573239166474</v>
       </c>
       <c r="E9">
-        <v>0.1544466398597777</v>
+        <v>0.2112322006079843</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008539053001089963</v>
+        <v>0.002689235682881843</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.45713070118532</v>
+        <v>6.735780273134168</v>
       </c>
       <c r="J9">
-        <v>0.05677496287827921</v>
+        <v>0.08413470533358947</v>
       </c>
       <c r="K9">
-        <v>1.539492692154909</v>
+        <v>1.484055622508606</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5684040451335619</v>
+        <v>0.643797794599152</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7840285240952767</v>
+        <v>0.73043921609937</v>
       </c>
       <c r="C10">
-        <v>1.329499658739564</v>
+        <v>0.8718813864604726</v>
       </c>
       <c r="D10">
-        <v>0.5335882274361836</v>
+        <v>0.6188527073480543</v>
       </c>
       <c r="E10">
-        <v>0.1755302249047475</v>
+        <v>0.2147103227314489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008342634989544696</v>
+        <v>0.002679764182374342</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.62259834884517</v>
+        <v>7.341839690424422</v>
       </c>
       <c r="J10">
-        <v>0.06360844826621559</v>
+        <v>0.08530984461799562</v>
       </c>
       <c r="K10">
-        <v>1.846699259963714</v>
+        <v>1.522774571969308</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6687030869210986</v>
+        <v>0.6573083566256699</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8585148237709461</v>
+        <v>0.7318666997935281</v>
       </c>
       <c r="C11">
-        <v>1.424452606703198</v>
+        <v>0.8942296735495461</v>
       </c>
       <c r="D11">
-        <v>0.5659016872973268</v>
+        <v>0.6241473111240623</v>
       </c>
       <c r="E11">
-        <v>0.1856141777312459</v>
+        <v>0.2163843165675701</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008253152925669164</v>
+        <v>0.002675644966615372</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.64184377686325</v>
+        <v>7.617079152355075</v>
       </c>
       <c r="J11">
-        <v>0.06687180198096598</v>
+        <v>0.08587361157896112</v>
       </c>
       <c r="K11">
-        <v>1.995495145425025</v>
+        <v>1.541795836748008</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.717089031364722</v>
+        <v>0.6639280365216962</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8878067545489614</v>
+        <v>0.7325649024145378</v>
       </c>
       <c r="C12">
-        <v>1.461036935570121</v>
+        <v>0.9027378778812931</v>
       </c>
       <c r="D12">
-        <v>0.578408904573422</v>
+        <v>0.626194530705277</v>
       </c>
       <c r="E12">
-        <v>0.1895161466514494</v>
+        <v>0.2170314698651339</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008219176806538201</v>
+        <v>0.002674112168704508</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.03381248320352</v>
+        <v>7.721250850931369</v>
       </c>
       <c r="J12">
-        <v>0.06813368894410132</v>
+        <v>0.08609131053661656</v>
       </c>
       <c r="K12">
-        <v>2.053392228470273</v>
+        <v>1.549202810302575</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7358823700844184</v>
+        <v>0.6665032787689924</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8814467479984103</v>
+        <v>0.7324074982850277</v>
       </c>
       <c r="C13">
-        <v>1.453128069053832</v>
+        <v>0.9009034549124522</v>
       </c>
       <c r="D13">
-        <v>0.5757024751050324</v>
+        <v>0.6257517426512607</v>
       </c>
       <c r="E13">
-        <v>0.1886718552723821</v>
+        <v>0.2168915037791308</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008226499522574813</v>
+        <v>0.002674441083563895</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.949108595751</v>
+        <v>7.698817909334707</v>
       </c>
       <c r="J13">
-        <v>0.06786068798051303</v>
+        <v>0.08604423756408153</v>
       </c>
       <c r="K13">
-        <v>2.040849562071628</v>
+        <v>1.547598485755742</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7318126330146981</v>
+        <v>0.6659456005887137</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8609017974782489</v>
+        <v>0.7319209738560346</v>
       </c>
       <c r="C14">
-        <v>1.427449178382233</v>
+        <v>0.8949287352771194</v>
       </c>
       <c r="D14">
-        <v>0.5669249751437633</v>
+        <v>0.6243148889877546</v>
       </c>
       <c r="E14">
-        <v>0.1859334440043696</v>
+        <v>0.2164372924482549</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008250359977957965</v>
+        <v>0.002675518321045861</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.67396404346601</v>
+        <v>7.625650471648044</v>
       </c>
       <c r="J14">
-        <v>0.06697506995193692</v>
+        <v>0.08589143728649162</v>
       </c>
       <c r="K14">
-        <v>2.000225679460726</v>
+        <v>1.542401114513098</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.718625266635911</v>
+        <v>0.6641385277957639</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8484646216698479</v>
+        <v>0.7316435352894928</v>
       </c>
       <c r="C15">
-        <v>1.411805268083867</v>
+        <v>0.8912749772208031</v>
       </c>
       <c r="D15">
-        <v>0.5615851113831809</v>
+        <v>0.6234402843889768</v>
       </c>
       <c r="E15">
-        <v>0.1842673579763812</v>
+        <v>0.2161608017337997</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000826496095123139</v>
+        <v>0.002676181678868961</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.50624740205279</v>
+        <v>7.580826392933659</v>
       </c>
       <c r="J15">
-        <v>0.06643613222945532</v>
+        <v>0.08579839177569681</v>
       </c>
       <c r="K15">
-        <v>1.97555263844589</v>
+        <v>1.539244193717252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7106113376323293</v>
+        <v>0.6630405781232938</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7793022083678522</v>
+        <v>0.7303679108658798</v>
       </c>
       <c r="C16">
-        <v>1.323376022390278</v>
+        <v>0.8704271912395711</v>
       </c>
       <c r="D16">
-        <v>0.5315119708903921</v>
+        <v>0.618512597846518</v>
       </c>
       <c r="E16">
-        <v>0.174882154154119</v>
+        <v>0.2146027743826693</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008348474320458304</v>
+        <v>0.002680037179479709</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.55676464712039</v>
+        <v>7.323843792764791</v>
       </c>
       <c r="J16">
-        <v>0.06339861048890327</v>
+        <v>0.08527358977968902</v>
       </c>
       <c r="K16">
-        <v>1.837177510004182</v>
+        <v>1.521559951445624</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.665602489305769</v>
+        <v>0.6568853102078549</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7386076944361264</v>
+        <v>0.72986465454008</v>
       </c>
       <c r="C17">
-        <v>1.270128723040955</v>
+        <v>0.8577179310487395</v>
       </c>
       <c r="D17">
-        <v>0.5134994286813992</v>
+        <v>0.615564721080176</v>
       </c>
       <c r="E17">
-        <v>0.1692591231596907</v>
+        <v>0.2136705169817787</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008399625947214956</v>
+        <v>0.002682450791563943</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.9837560005742</v>
+        <v>7.166082982046845</v>
       </c>
       <c r="J17">
-        <v>0.06157737870569235</v>
+        <v>0.08495912760876934</v>
       </c>
       <c r="K17">
-        <v>1.754770068072446</v>
+        <v>1.511072935400421</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6387462508580484</v>
+        <v>0.6532308492943741</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.71578379304853</v>
+        <v>0.7296773938039394</v>
       </c>
       <c r="C18">
-        <v>1.23983784115552</v>
+        <v>0.8504371685233423</v>
       </c>
       <c r="D18">
-        <v>0.503286712135008</v>
+        <v>0.6138967245295817</v>
       </c>
       <c r="E18">
-        <v>0.1660704360454375</v>
+        <v>0.2131429426607667</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008429039727713532</v>
+        <v>0.002683856877156393</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.6573169792</v>
+        <v>7.075299191035128</v>
       </c>
       <c r="J18">
-        <v>0.06054415455822948</v>
+        <v>0.08478100385874399</v>
       </c>
       <c r="K18">
-        <v>1.708205536036985</v>
+        <v>1.505173493994363</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6235538584911495</v>
+        <v>0.6511734580657205</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7081511925816244</v>
+        <v>0.7296315017385382</v>
       </c>
       <c r="C19">
-        <v>1.229636617737242</v>
+        <v>0.8479770355662595</v>
       </c>
       <c r="D19">
-        <v>0.4998530817328515</v>
+        <v>0.6133366952095685</v>
       </c>
       <c r="E19">
-        <v>0.1649982748313903</v>
+        <v>0.2129657967114795</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008438999482631865</v>
+        <v>0.002684336022954554</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.54729947319092</v>
+        <v>7.044553490592421</v>
       </c>
       <c r="J19">
-        <v>0.06019667137349671</v>
+        <v>0.08472116549390307</v>
       </c>
       <c r="K19">
-        <v>1.692575927011461</v>
+        <v>1.503198738803519</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.61845166547198</v>
+        <v>0.6504845016081831</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7428782308672339</v>
+        <v>0.7299076399273758</v>
       </c>
       <c r="C20">
-        <v>1.275761563566675</v>
+        <v>0.8590678199424246</v>
       </c>
       <c r="D20">
-        <v>0.5154013422881008</v>
+        <v>0.6158756756604475</v>
       </c>
       <c r="E20">
-        <v>0.1698529083180702</v>
+        <v>0.213768863276087</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008394182002625824</v>
+        <v>0.002682192013588506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.04442142858917</v>
+        <v>7.182881361375166</v>
       </c>
       <c r="J20">
-        <v>0.06176974599885199</v>
+        <v>0.08499231827625664</v>
       </c>
       <c r="K20">
-        <v>1.763454490053874</v>
+        <v>1.512175580561689</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6415782997645891</v>
+        <v>0.6536152584445531</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8669053063694037</v>
+        <v>0.7320595882358703</v>
       </c>
       <c r="C21">
-        <v>1.434973732726348</v>
+        <v>0.8966824182757591</v>
       </c>
       <c r="D21">
-        <v>0.5694954267088121</v>
+        <v>0.6247357791956745</v>
       </c>
       <c r="E21">
-        <v>0.1867354075440133</v>
+        <v>0.216570345361049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008243354702459423</v>
+        <v>0.002675201177196727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.75460810979502</v>
+        <v>7.647142942594087</v>
       </c>
       <c r="J21">
-        <v>0.06723445411245166</v>
+        <v>0.08593620397766699</v>
       </c>
       <c r="K21">
-        <v>2.012113565173905</v>
+        <v>1.543922158119557</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7224852863280233</v>
+        <v>0.6646674461818591</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9544000688221672</v>
+        <v>0.734385555408096</v>
       </c>
       <c r="C22">
-        <v>1.542749518250503</v>
+        <v>0.9215306185523673</v>
       </c>
       <c r="D22">
-        <v>0.606452221332205</v>
+        <v>0.6307728244549651</v>
       </c>
       <c r="E22">
-        <v>0.1982627207910355</v>
+        <v>0.2184785213946796</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008144205100054754</v>
+        <v>0.002670789905875342</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.90795609671022</v>
+        <v>7.950246226551144</v>
       </c>
       <c r="J22">
-        <v>0.0709605632390975</v>
+        <v>0.08657764989490602</v>
       </c>
       <c r="K22">
-        <v>2.183821451870955</v>
+        <v>1.565860415766394</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7781506966688383</v>
+        <v>0.6722902330855121</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9070458445654026</v>
+        <v>0.7330595390218946</v>
       </c>
       <c r="C23">
-        <v>1.484847547058109</v>
+        <v>0.9082442196991565</v>
       </c>
       <c r="D23">
-        <v>0.5865654410410457</v>
+        <v>0.6275281305436522</v>
       </c>
       <c r="E23">
-        <v>0.1920604613121739</v>
+        <v>0.2174530066632414</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008197203231979125</v>
+        <v>0.002673129918552736</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.2887183228554</v>
+        <v>7.788499878997527</v>
       </c>
       <c r="J23">
-        <v>0.06895625505938341</v>
+        <v>0.08623304552454414</v>
       </c>
       <c r="K23">
-        <v>2.09124072105007</v>
+        <v>1.554042128986993</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7481577710103977</v>
+        <v>0.6681851136642933</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7409457528469261</v>
+        <v>0.7298878884186308</v>
       </c>
       <c r="C24">
-        <v>1.273213961934289</v>
+        <v>0.8584574543587564</v>
       </c>
       <c r="D24">
-        <v>0.5145410449258065</v>
+        <v>0.6157350097032008</v>
       </c>
       <c r="E24">
-        <v>0.1695843216975916</v>
+        <v>0.213724374778316</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008396643185923928</v>
+        <v>0.002682308949738761</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.01698535107136</v>
+        <v>7.175287079636632</v>
       </c>
       <c r="J24">
-        <v>0.06168273396212953</v>
+        <v>0.08497730447680851</v>
       </c>
       <c r="K24">
-        <v>1.75952575006562</v>
+        <v>1.511676670867899</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6402971645686293</v>
+        <v>0.6534413312717575</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5835904494875308</v>
+        <v>0.7303686291344889</v>
       </c>
       <c r="C25">
-        <v>1.057481535773832</v>
+        <v>0.8058707437891712</v>
       </c>
       <c r="D25">
-        <v>0.4423849134106774</v>
+        <v>0.6040665947994341</v>
       </c>
       <c r="E25">
-        <v>0.1470472512238459</v>
+        <v>0.2100323874875087</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000861168833764393</v>
+        <v>0.002692892804611373</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.68366663457593</v>
+        <v>6.512113746668092</v>
       </c>
       <c r="J25">
-        <v>0.05437332603891676</v>
+        <v>0.08372772918013638</v>
       </c>
       <c r="K25">
-        <v>1.432946080021537</v>
+        <v>1.471034760565544</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5334905728976196</v>
+        <v>0.6392397168833526</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7340267269605079</v>
+        <v>0.4813105966774742</v>
       </c>
       <c r="C2">
-        <v>0.7680793040000253</v>
+        <v>0.9063146887357618</v>
       </c>
       <c r="D2">
-        <v>0.5963715833518961</v>
+        <v>0.3927929490325255</v>
       </c>
       <c r="E2">
-        <v>0.2075951406501559</v>
+        <v>0.1315473785894916</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002701280903774335</v>
+        <v>0.000877212992964288</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.021838378453396</v>
+        <v>10.0336613576018</v>
       </c>
       <c r="J2">
-        <v>0.0828971149347808</v>
+        <v>0.04933664263230497</v>
       </c>
       <c r="K2">
-        <v>1.445391888335763</v>
+        <v>1.211956122748234</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6302291079695408</v>
+        <v>0.4608661751334253</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.738542070033489</v>
+        <v>0.4184286495557643</v>
       </c>
       <c r="C3">
-        <v>0.7430314300875409</v>
+        <v>0.8074071195840702</v>
       </c>
       <c r="D3">
-        <v>0.5917118223406561</v>
+        <v>0.3609007163336884</v>
       </c>
       <c r="E3">
-        <v>0.2061175895282794</v>
+        <v>0.1215756615341199</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002707340933266114</v>
+        <v>0.0008883049977973755</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.688095662163022</v>
+        <v>8.944718461084534</v>
       </c>
       <c r="J3">
-        <v>0.08238962656462689</v>
+        <v>0.0460920137656089</v>
       </c>
       <c r="K3">
-        <v>1.430652675570428</v>
+        <v>1.071410059903627</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6250162470212217</v>
+        <v>0.4145327466476942</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7423110122064003</v>
+        <v>0.3824342012341759</v>
       </c>
       <c r="C4">
-        <v>0.7279255319842832</v>
+        <v>0.7480766874512312</v>
       </c>
       <c r="D4">
-        <v>0.5891234622513224</v>
+        <v>0.3420298581994672</v>
       </c>
       <c r="E4">
-        <v>0.2052959573583593</v>
+        <v>0.1156741672416643</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002711248263816709</v>
+        <v>0.0008952477919344609</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.482372429035081</v>
+        <v>8.286889481768043</v>
       </c>
       <c r="J4">
-        <v>0.08210526408340968</v>
+        <v>0.04417010480400307</v>
       </c>
       <c r="K4">
-        <v>1.422894880972621</v>
+        <v>0.9888578599803566</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6222538927145891</v>
+        <v>0.3872671664799725</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7440963741009341</v>
+        <v>0.3683507192426418</v>
       </c>
       <c r="C5">
-        <v>0.7218380456889122</v>
+        <v>0.724205328655529</v>
       </c>
       <c r="D5">
-        <v>0.588137156271145</v>
+        <v>0.3345008119034674</v>
       </c>
       <c r="E5">
-        <v>0.2049826248164592</v>
+        <v>0.113319412418722</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002712887599775284</v>
+        <v>0.000898113507670895</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.398326946486975</v>
+        <v>8.021049786890273</v>
       </c>
       <c r="J5">
-        <v>0.08199622328440626</v>
+        <v>0.04340288710542595</v>
       </c>
       <c r="K5">
-        <v>1.420057208277342</v>
+        <v>0.9560531100020739</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6212381459126064</v>
+        <v>0.3764223506747797</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7444078689928233</v>
+        <v>0.3660454856766364</v>
       </c>
       <c r="C6">
-        <v>0.7208313331616125</v>
+        <v>0.7202587605052315</v>
       </c>
       <c r="D6">
-        <v>0.5879775132323886</v>
+        <v>0.3332598553901818</v>
       </c>
       <c r="E6">
-        <v>0.2049318931533612</v>
+        <v>0.1129312869055568</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002713162658438179</v>
+        <v>0.0008985916484064305</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.384358204187834</v>
+        <v>7.977028886353054</v>
       </c>
       <c r="J6">
-        <v>0.08197852993896504</v>
+        <v>0.04327640952058331</v>
       </c>
       <c r="K6">
-        <v>1.419605529778494</v>
+        <v>0.9506535240405753</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6210761133040137</v>
+        <v>0.3746367941107778</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7423340814749793</v>
+        <v>0.3822419904952028</v>
       </c>
       <c r="C7">
-        <v>0.7278431581735276</v>
+        <v>0.7477535667517827</v>
       </c>
       <c r="D7">
-        <v>0.5891098834882769</v>
+        <v>0.3419276892851428</v>
       </c>
       <c r="E7">
-        <v>0.2052916446787307</v>
+        <v>0.1156422139514994</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002711270181691287</v>
+        <v>0.0008952862882407391</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.481239831443446</v>
+        <v>8.283295842951219</v>
       </c>
       <c r="J7">
-        <v>0.08210376584169055</v>
+        <v>0.04415969527900998</v>
       </c>
       <c r="K7">
-        <v>1.422855302100714</v>
+        <v>0.9884121901529852</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.622239749254625</v>
+        <v>0.3871198710974681</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7353761265793821</v>
+        <v>0.4590394694807003</v>
       </c>
       <c r="C8">
-        <v>0.7593856937097883</v>
+        <v>0.8718919908593534</v>
       </c>
       <c r="D8">
-        <v>0.594708215051341</v>
+        <v>0.3816375819312867</v>
       </c>
       <c r="E8">
-        <v>0.2070678954630907</v>
+        <v>0.1280597505676866</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002703331815378729</v>
+        <v>0.0008810121045196439</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.906924916223318</v>
+        <v>9.655649416138601</v>
       </c>
       <c r="J8">
-        <v>0.08271647344191635</v>
+        <v>0.04820222047887768</v>
       </c>
       <c r="K8">
-        <v>1.440040865160853</v>
+        <v>1.16265167295208</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.628340547090211</v>
+        <v>0.4446247984861316</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7296900451270005</v>
+        <v>0.6341803041511582</v>
       </c>
       <c r="C9">
-        <v>0.8234384501483873</v>
+        <v>1.128773087237732</v>
       </c>
       <c r="D9">
-        <v>0.6078573239166474</v>
+        <v>0.4660686061669708</v>
       </c>
       <c r="E9">
-        <v>0.2112322006079843</v>
+        <v>0.1544466398596995</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002689235682881843</v>
+        <v>0.0008539053003582776</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.735780273134168</v>
+        <v>12.45713070118549</v>
       </c>
       <c r="J9">
-        <v>0.08413470533358947</v>
+        <v>0.05677496287863093</v>
       </c>
       <c r="K9">
-        <v>1.484055622508606</v>
+        <v>1.539492692155022</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.643797794599152</v>
+        <v>0.5684040451335335</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.73043921609937</v>
+        <v>0.784028524095163</v>
       </c>
       <c r="C10">
-        <v>0.8718813864604726</v>
+        <v>1.329499658738371</v>
       </c>
       <c r="D10">
-        <v>0.6188527073480543</v>
+        <v>0.5335882274360699</v>
       </c>
       <c r="E10">
-        <v>0.2147103227314489</v>
+        <v>0.175530224904513</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002679764182374342</v>
+        <v>0.0008342634987159247</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.341839690424422</v>
+        <v>14.62259834884537</v>
       </c>
       <c r="J10">
-        <v>0.08530984461799562</v>
+        <v>0.06360844826600243</v>
       </c>
       <c r="K10">
-        <v>1.522774571969308</v>
+        <v>1.846699259963685</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6573083566256699</v>
+        <v>0.6687030869210062</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7318666997935281</v>
+        <v>0.8585148237708324</v>
       </c>
       <c r="C11">
-        <v>0.8942296735495461</v>
+        <v>1.424452606704392</v>
       </c>
       <c r="D11">
-        <v>0.6241473111240623</v>
+        <v>0.5659016872970142</v>
       </c>
       <c r="E11">
-        <v>0.2163843165675701</v>
+        <v>0.1856141777311962</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002675644966615372</v>
+        <v>0.0008253152926644807</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.617079152355075</v>
+        <v>15.64184377686371</v>
       </c>
       <c r="J11">
-        <v>0.08587361157896112</v>
+        <v>0.06687180198090914</v>
       </c>
       <c r="K11">
-        <v>1.541795836748008</v>
+        <v>1.995495145425252</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6639280365216962</v>
+        <v>0.7170890313647718</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7325649024145378</v>
+        <v>0.8878067545489898</v>
       </c>
       <c r="C12">
-        <v>0.9027378778812931</v>
+        <v>1.46103693556995</v>
       </c>
       <c r="D12">
-        <v>0.626194530705277</v>
+        <v>0.5784089045725977</v>
       </c>
       <c r="E12">
-        <v>0.2170314698651339</v>
+        <v>0.1895161466514494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002674112168704508</v>
+        <v>0.0008219176804154335</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.721250850931369</v>
+        <v>16.03381248320369</v>
       </c>
       <c r="J12">
-        <v>0.08609131053661656</v>
+        <v>0.06813368894403737</v>
       </c>
       <c r="K12">
-        <v>1.549202810302575</v>
+        <v>2.053392228470415</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6665032787689924</v>
+        <v>0.7358823700844184</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7324074982850277</v>
+        <v>0.8814467479983534</v>
       </c>
       <c r="C13">
-        <v>0.9009034549124522</v>
+        <v>1.453128069052923</v>
       </c>
       <c r="D13">
-        <v>0.6257517426512607</v>
+        <v>0.5757024751050039</v>
       </c>
       <c r="E13">
-        <v>0.2168915037791308</v>
+        <v>0.1886718552723821</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002674441083563895</v>
+        <v>0.0008226499521902609</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.698817909334707</v>
+        <v>15.94910859575094</v>
       </c>
       <c r="J13">
-        <v>0.08604423756408153</v>
+        <v>0.06786068798054146</v>
       </c>
       <c r="K13">
-        <v>1.547598485755742</v>
+        <v>2.040849562071656</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6659456005887137</v>
+        <v>0.7318126330147408</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7319209738560346</v>
+        <v>0.860901797477851</v>
       </c>
       <c r="C14">
-        <v>0.8949287352771194</v>
+        <v>1.427449178382005</v>
       </c>
       <c r="D14">
-        <v>0.6243148889877546</v>
+        <v>0.566924975144957</v>
       </c>
       <c r="E14">
-        <v>0.2164372924482549</v>
+        <v>0.1859334440043767</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002675518321045861</v>
+        <v>0.0008250359981682122</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.625650471648044</v>
+        <v>15.6739640434659</v>
       </c>
       <c r="J14">
-        <v>0.08589143728649162</v>
+        <v>0.06697506995190849</v>
       </c>
       <c r="K14">
-        <v>1.542401114513098</v>
+        <v>2.000225679460669</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6641385277957639</v>
+        <v>0.718625266635911</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7316435352894928</v>
+        <v>0.848464621669649</v>
       </c>
       <c r="C15">
-        <v>0.8912749772208031</v>
+        <v>1.411805268083071</v>
       </c>
       <c r="D15">
-        <v>0.6234402843889768</v>
+        <v>0.5615851113836641</v>
       </c>
       <c r="E15">
-        <v>0.2161608017337997</v>
+        <v>0.184267357976573</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002676181678868961</v>
+        <v>0.0008264960951284971</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.580826392933659</v>
+        <v>15.50624740205274</v>
       </c>
       <c r="J15">
-        <v>0.08579839177569681</v>
+        <v>0.06643613222914269</v>
       </c>
       <c r="K15">
-        <v>1.539244193717252</v>
+        <v>1.975552638445691</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6630405781232938</v>
+        <v>0.7106113376324288</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7303679108658798</v>
+        <v>0.7793022083680796</v>
       </c>
       <c r="C16">
-        <v>0.8704271912395711</v>
+        <v>1.323376022389311</v>
       </c>
       <c r="D16">
-        <v>0.618512597846518</v>
+        <v>0.5315119708906764</v>
       </c>
       <c r="E16">
-        <v>0.2146027743826693</v>
+        <v>0.174882154154254</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002680037179479709</v>
+        <v>0.0008348474318473076</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.323843792764791</v>
+        <v>14.55676464712064</v>
       </c>
       <c r="J16">
-        <v>0.08527358977968902</v>
+        <v>0.06339861048920881</v>
       </c>
       <c r="K16">
-        <v>1.521559951445624</v>
+        <v>1.837177510004324</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6568853102078549</v>
+        <v>0.6656024893058614</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.72986465454008</v>
+        <v>0.7386076944362685</v>
       </c>
       <c r="C17">
-        <v>0.8577179310487395</v>
+        <v>1.27012872304033</v>
       </c>
       <c r="D17">
-        <v>0.615564721080176</v>
+        <v>0.5134994286811718</v>
       </c>
       <c r="E17">
-        <v>0.2136705169817787</v>
+        <v>0.169259123159911</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002682450791563943</v>
+        <v>0.0008399625946880757</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.166082982046845</v>
+        <v>13.98375600057449</v>
       </c>
       <c r="J17">
-        <v>0.08495912760876934</v>
+        <v>0.06157737870569235</v>
       </c>
       <c r="K17">
-        <v>1.511072935400421</v>
+        <v>1.754770068072247</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6532308492943741</v>
+        <v>0.638746250858091</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7296773938039394</v>
+        <v>0.7157837930483879</v>
       </c>
       <c r="C18">
-        <v>0.8504371685233423</v>
+        <v>1.239837841156884</v>
       </c>
       <c r="D18">
-        <v>0.6138967245295817</v>
+        <v>0.5032867121350364</v>
       </c>
       <c r="E18">
-        <v>0.2131429426607667</v>
+        <v>0.1660704360455298</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002683856877156393</v>
+        <v>0.0008429039727223441</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.075299191035128</v>
+        <v>13.65731697920049</v>
       </c>
       <c r="J18">
-        <v>0.08478100385874399</v>
+        <v>0.06054415455881923</v>
       </c>
       <c r="K18">
-        <v>1.505173493994363</v>
+        <v>1.708205536037241</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6511734580657205</v>
+        <v>0.6235538584912135</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7296315017385382</v>
+        <v>0.7081511925815391</v>
       </c>
       <c r="C19">
-        <v>0.8479770355662595</v>
+        <v>1.22963661773656</v>
       </c>
       <c r="D19">
-        <v>0.6133366952095685</v>
+        <v>0.499853081733221</v>
       </c>
       <c r="E19">
-        <v>0.2129657967114795</v>
+        <v>0.164998274831305</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002684336022954554</v>
+        <v>0.0008438999483655464</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.044553490592421</v>
+        <v>13.54729947319103</v>
       </c>
       <c r="J19">
-        <v>0.08472116549390307</v>
+        <v>0.06019667137357487</v>
       </c>
       <c r="K19">
-        <v>1.503198738803519</v>
+        <v>1.692575927011575</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6504845016081831</v>
+        <v>0.6184516654719516</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7299076399273758</v>
+        <v>0.7428782308674045</v>
       </c>
       <c r="C20">
-        <v>0.8590678199424246</v>
+        <v>1.275761563566562</v>
       </c>
       <c r="D20">
-        <v>0.6158756756604475</v>
+        <v>0.5154013422879302</v>
       </c>
       <c r="E20">
-        <v>0.213768863276087</v>
+        <v>0.1698529083182194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002682192013588506</v>
+        <v>0.0008394182003487945</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.182881361375166</v>
+        <v>14.04442142858946</v>
       </c>
       <c r="J20">
-        <v>0.08499231827625664</v>
+        <v>0.06176974599898699</v>
       </c>
       <c r="K20">
-        <v>1.512175580561689</v>
+        <v>1.763454490053761</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6536152584445531</v>
+        <v>0.6415782997645962</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7320595882358703</v>
+        <v>0.8669053063693752</v>
       </c>
       <c r="C21">
-        <v>0.8966824182757591</v>
+        <v>1.434973732726235</v>
       </c>
       <c r="D21">
-        <v>0.6247357791956745</v>
+        <v>0.5694954267089258</v>
       </c>
       <c r="E21">
-        <v>0.216570345361049</v>
+        <v>0.1867354075440204</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002675201177196727</v>
+        <v>0.0008243354701411507</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.647142942594087</v>
+        <v>15.75460810979496</v>
       </c>
       <c r="J21">
-        <v>0.08593620397766699</v>
+        <v>0.06723445411272166</v>
       </c>
       <c r="K21">
-        <v>1.543922158119557</v>
+        <v>2.012113565173962</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6646674461818591</v>
+        <v>0.7224852863280091</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.734385555408096</v>
+        <v>0.9544000688221672</v>
       </c>
       <c r="C22">
-        <v>0.9215306185523673</v>
+        <v>1.542749518250616</v>
       </c>
       <c r="D22">
-        <v>0.6307728244549651</v>
+        <v>0.6064522213319492</v>
       </c>
       <c r="E22">
-        <v>0.2184785213946796</v>
+        <v>0.1982627207910994</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002670789905875342</v>
+        <v>0.000814420509954668</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.950246226551144</v>
+        <v>16.90795609670982</v>
       </c>
       <c r="J22">
-        <v>0.08657764989490602</v>
+        <v>0.07096056323861433</v>
       </c>
       <c r="K22">
-        <v>1.565860415766394</v>
+        <v>2.183821451870728</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6722902330855121</v>
+        <v>0.7781506966689165</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7330595390218946</v>
+        <v>0.9070458445657721</v>
       </c>
       <c r="C23">
-        <v>0.9082442196991565</v>
+        <v>1.484847547059076</v>
       </c>
       <c r="D23">
-        <v>0.6275281305436522</v>
+        <v>0.5865654410411594</v>
       </c>
       <c r="E23">
-        <v>0.2174530066632414</v>
+        <v>0.1920604613121597</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002673129918552736</v>
+        <v>0.0008197203234424999</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.788499878997527</v>
+        <v>16.28871832285586</v>
       </c>
       <c r="J23">
-        <v>0.08623304552454414</v>
+        <v>0.06895625505917735</v>
       </c>
       <c r="K23">
-        <v>1.554042128986993</v>
+        <v>2.091240721050099</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6681851136642933</v>
+        <v>0.7481577710103409</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7298878884186308</v>
+        <v>0.7409457528470966</v>
       </c>
       <c r="C24">
-        <v>0.8584574543587564</v>
+        <v>1.2732139619348</v>
       </c>
       <c r="D24">
-        <v>0.6157350097032008</v>
+        <v>0.5145410449262897</v>
       </c>
       <c r="E24">
-        <v>0.213724374778316</v>
+        <v>0.1695843216977337</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002682308949738761</v>
+        <v>0.0008396643187285058</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.175287079636632</v>
+        <v>14.01698535107118</v>
       </c>
       <c r="J24">
-        <v>0.08497730447680851</v>
+        <v>0.06168273396225743</v>
       </c>
       <c r="K24">
-        <v>1.511676670867899</v>
+        <v>1.759525750065336</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6534413312717575</v>
+        <v>0.6402971645686435</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7303686291344889</v>
+        <v>0.5835904494876729</v>
       </c>
       <c r="C25">
-        <v>0.8058707437891712</v>
+        <v>1.057481535774343</v>
       </c>
       <c r="D25">
-        <v>0.6040665947994341</v>
+        <v>0.4423849134104785</v>
       </c>
       <c r="E25">
-        <v>0.2100323874875087</v>
+        <v>0.14704725122375</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002692892804611373</v>
+        <v>0.0008611688338964303</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.512113746668092</v>
+        <v>11.68366663457584</v>
       </c>
       <c r="J25">
-        <v>0.08372772918013638</v>
+        <v>0.05437332603868583</v>
       </c>
       <c r="K25">
-        <v>1.471034760565544</v>
+        <v>1.432946080021878</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6392397168833526</v>
+        <v>0.5334905728975556</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4813105966774742</v>
+        <v>0.8977239802970018</v>
       </c>
       <c r="C2">
-        <v>0.9063146887357618</v>
+        <v>0.2890893354127684</v>
       </c>
       <c r="D2">
-        <v>0.3927929490325255</v>
+        <v>0.5437584195442753</v>
       </c>
       <c r="E2">
-        <v>0.1315473785894916</v>
+        <v>0.2419118043982493</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000877212992964288</v>
+        <v>1.830457936010873</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01113806308107709</v>
       </c>
       <c r="I2">
-        <v>10.0336613576018</v>
+        <v>0.01322176950576059</v>
       </c>
       <c r="J2">
-        <v>0.04933664263230497</v>
+        <v>1.138535434085441</v>
       </c>
       <c r="K2">
-        <v>1.211956122748234</v>
+        <v>1.124595274259875</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1427614826172601</v>
       </c>
       <c r="M2">
-        <v>0.4608661751334253</v>
+        <v>1.175139518963931</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4184286495557643</v>
+        <v>0.7806408367366373</v>
       </c>
       <c r="C3">
-        <v>0.8074071195840702</v>
+        <v>0.2513100293401465</v>
       </c>
       <c r="D3">
-        <v>0.3609007163336884</v>
+        <v>0.4841153264698619</v>
       </c>
       <c r="E3">
-        <v>0.1215756615341199</v>
+        <v>0.212168146917449</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008883049977973755</v>
+        <v>1.69466545856011</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01557243356157023</v>
       </c>
       <c r="I3">
-        <v>8.944718461084534</v>
+        <v>0.01741411817169825</v>
       </c>
       <c r="J3">
-        <v>0.0460920137656089</v>
+        <v>1.077427998313823</v>
       </c>
       <c r="K3">
-        <v>1.071410059903627</v>
+        <v>1.060394222047698</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.123374973199823</v>
       </c>
       <c r="M3">
-        <v>0.4145327466476942</v>
+        <v>1.021700457244521</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3824342012341759</v>
+        <v>0.7087588760133485</v>
       </c>
       <c r="C4">
-        <v>0.7480766874512312</v>
+        <v>0.2285437843603972</v>
       </c>
       <c r="D4">
-        <v>0.3420298581994672</v>
+        <v>0.4476680501227577</v>
       </c>
       <c r="E4">
-        <v>0.1156741672416643</v>
+        <v>0.1939562911646604</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008952477919344609</v>
+        <v>1.61117157350165</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01877230336981583</v>
       </c>
       <c r="I4">
-        <v>8.286889481768043</v>
+        <v>0.020408680797257</v>
       </c>
       <c r="J4">
-        <v>0.04417010480400307</v>
+        <v>1.039896261354812</v>
       </c>
       <c r="K4">
-        <v>0.9888578599803566</v>
+        <v>1.02069565636171</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.111572821972004</v>
       </c>
       <c r="M4">
-        <v>0.3872671664799725</v>
+        <v>0.9279403399234241</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3683507192426418</v>
+        <v>0.6792054371825031</v>
       </c>
       <c r="C5">
-        <v>0.724205328655529</v>
+        <v>0.2198583524637883</v>
       </c>
       <c r="D5">
-        <v>0.3345008119034674</v>
+        <v>0.4328400217889055</v>
       </c>
       <c r="E5">
-        <v>0.113319412418722</v>
+        <v>0.1865359991160602</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000898113507670895</v>
+        <v>1.574297616528042</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02019897952626426</v>
       </c>
       <c r="I5">
-        <v>8.021049786890273</v>
+        <v>0.02182809129910801</v>
       </c>
       <c r="J5">
-        <v>0.04340288710542595</v>
+        <v>1.023163095055452</v>
       </c>
       <c r="K5">
-        <v>0.9560531100020739</v>
+        <v>1.002537628021052</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1067798042754902</v>
       </c>
       <c r="M5">
-        <v>0.3764223506747797</v>
+        <v>0.8901629640284625</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3660454856766364</v>
+        <v>0.6739860445584327</v>
       </c>
       <c r="C6">
-        <v>0.7202587605052315</v>
+        <v>0.2190263130020611</v>
       </c>
       <c r="D6">
-        <v>0.3332598553901818</v>
+        <v>0.4303652465119114</v>
       </c>
       <c r="E6">
-        <v>0.1129312869055568</v>
+        <v>0.185294893963281</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008985916484064305</v>
+        <v>1.564744195614637</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02045225351738944</v>
       </c>
       <c r="I6">
-        <v>7.977028886353054</v>
+        <v>0.02219682490205432</v>
       </c>
       <c r="J6">
-        <v>0.04327640952058331</v>
+        <v>1.018637736207339</v>
       </c>
       <c r="K6">
-        <v>0.9506535240405753</v>
+        <v>0.9971911515560592</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1059788461138069</v>
       </c>
       <c r="M6">
-        <v>0.3746367941107778</v>
+        <v>0.8843046390481391</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3822419904952028</v>
+        <v>0.7075049247673633</v>
       </c>
       <c r="C7">
-        <v>0.7477535667517827</v>
+        <v>0.2300791644571945</v>
       </c>
       <c r="D7">
-        <v>0.3419276892851428</v>
+        <v>0.4474280596657252</v>
       </c>
       <c r="E7">
-        <v>0.1156422139514994</v>
+        <v>0.1938303246119375</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008952862882407391</v>
+        <v>1.601301406952572</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01881574458140456</v>
       </c>
       <c r="I7">
-        <v>8.283295842951219</v>
+        <v>0.02075522821448317</v>
       </c>
       <c r="J7">
-        <v>0.04415969527900998</v>
+        <v>1.034899707890247</v>
       </c>
       <c r="K7">
-        <v>0.9884121901529852</v>
+        <v>1.014089089660779</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.111490376807609</v>
       </c>
       <c r="M7">
-        <v>0.3871198710974681</v>
+        <v>0.9285481506534552</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4590394694807003</v>
+        <v>0.8561938192240461</v>
       </c>
       <c r="C8">
-        <v>0.8718919908593534</v>
+        <v>0.2781688442091479</v>
       </c>
       <c r="D8">
-        <v>0.3816375819312867</v>
+        <v>0.5230998479908919</v>
       </c>
       <c r="E8">
-        <v>0.1280597505676866</v>
+        <v>0.2316079949916912</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008810121045196439</v>
+        <v>1.771216341633732</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01259061438604353</v>
       </c>
       <c r="I8">
-        <v>9.655649416138601</v>
+        <v>0.01496409504376661</v>
       </c>
       <c r="J8">
-        <v>0.04820222047887768</v>
+        <v>1.111150447198469</v>
       </c>
       <c r="K8">
-        <v>1.16265167295208</v>
+        <v>1.094081011987882</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1360274642481016</v>
       </c>
       <c r="M8">
-        <v>0.4446247984861316</v>
+        <v>1.123607719979503</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6341803041511582</v>
+        <v>1.149823818027102</v>
       </c>
       <c r="C9">
-        <v>1.128773087237732</v>
+        <v>0.3733475480562163</v>
       </c>
       <c r="D9">
-        <v>0.4660686061669708</v>
+        <v>0.6732938048310473</v>
       </c>
       <c r="E9">
-        <v>0.1544466398596995</v>
+        <v>0.306330500071553</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008539053003582776</v>
+        <v>2.121090996374477</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004381079627267637</v>
       </c>
       <c r="I9">
-        <v>12.45713070118549</v>
+        <v>0.006679060913696411</v>
       </c>
       <c r="J9">
-        <v>0.05677496287863093</v>
+        <v>1.269470382035763</v>
       </c>
       <c r="K9">
-        <v>1.539492692155022</v>
+        <v>1.260422341874559</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1851700081599148</v>
       </c>
       <c r="M9">
-        <v>0.5684040451335335</v>
+        <v>1.508550360569672</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.784028524095163</v>
+        <v>1.367599463211434</v>
       </c>
       <c r="C10">
-        <v>1.329499658738371</v>
+        <v>0.4429774440064875</v>
       </c>
       <c r="D10">
-        <v>0.5335882274360699</v>
+        <v>0.7689214267001603</v>
       </c>
       <c r="E10">
-        <v>0.175530224904513</v>
+        <v>0.3487630384511036</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008342634987159247</v>
+        <v>2.326218707219795</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001481302902762049</v>
       </c>
       <c r="I10">
-        <v>14.62259834884537</v>
+        <v>0.003315027420210725</v>
       </c>
       <c r="J10">
-        <v>0.06360844826600243</v>
+        <v>1.359879489113354</v>
       </c>
       <c r="K10">
-        <v>1.846699259963685</v>
+        <v>1.351287673146786</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2097076792715029</v>
       </c>
       <c r="M10">
-        <v>0.6687030869210062</v>
+        <v>1.79252915805256</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8585148237708324</v>
+        <v>1.479403235484028</v>
       </c>
       <c r="C11">
-        <v>1.424452606704392</v>
+        <v>0.4420575500294888</v>
       </c>
       <c r="D11">
-        <v>0.5659016872970142</v>
+        <v>0.6757996919774598</v>
       </c>
       <c r="E11">
-        <v>0.1856141777311962</v>
+        <v>0.2628137680673674</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008253152926644807</v>
+        <v>2.002926866539724</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02007125478187533</v>
       </c>
       <c r="I11">
-        <v>15.64184377686371</v>
+        <v>0.003346248992668777</v>
       </c>
       <c r="J11">
-        <v>0.06687180198090914</v>
+        <v>1.191833644698136</v>
       </c>
       <c r="K11">
-        <v>1.995495145425252</v>
+        <v>1.15593210589671</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1269326049745914</v>
       </c>
       <c r="M11">
-        <v>0.7170890313647718</v>
+        <v>1.894889954600103</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8878067545489898</v>
+        <v>1.529887977847977</v>
       </c>
       <c r="C12">
-        <v>1.46103693556995</v>
+        <v>0.4236689434718528</v>
       </c>
       <c r="D12">
-        <v>0.5784089045725977</v>
+        <v>0.5828532762794794</v>
       </c>
       <c r="E12">
-        <v>0.1895161466514494</v>
+        <v>0.1926461526284697</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008219176804154335</v>
+        <v>1.722052808785861</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05903872075016636</v>
       </c>
       <c r="I12">
-        <v>16.03381248320369</v>
+        <v>0.003374444729158377</v>
       </c>
       <c r="J12">
-        <v>0.06813368894403737</v>
+        <v>1.04820359961991</v>
       </c>
       <c r="K12">
-        <v>2.053392228470415</v>
+        <v>0.9954595617027806</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07078091593798774</v>
       </c>
       <c r="M12">
-        <v>0.7358823700844184</v>
+        <v>1.918678554195679</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8814467479983534</v>
+        <v>1.534226517094538</v>
       </c>
       <c r="C13">
-        <v>1.453128069052923</v>
+        <v>0.3935608176760752</v>
       </c>
       <c r="D13">
-        <v>0.5757024751050039</v>
+        <v>0.4852949295458018</v>
       </c>
       <c r="E13">
-        <v>0.1886718552723821</v>
+        <v>0.13099752802583</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008226499521902609</v>
+        <v>1.443755934622828</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1154064594776116</v>
       </c>
       <c r="I13">
-        <v>15.94910859575094</v>
+        <v>0.003817037704561876</v>
       </c>
       <c r="J13">
-        <v>0.06786068798054146</v>
+        <v>0.90790886847563</v>
       </c>
       <c r="K13">
-        <v>2.040849562071656</v>
+        <v>0.842917627501734</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03208760103601449</v>
       </c>
       <c r="M13">
-        <v>0.7318126330147408</v>
+        <v>1.884936282251545</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.860901797477851</v>
+        <v>1.516127461346201</v>
       </c>
       <c r="C14">
-        <v>1.427449178382005</v>
+        <v>0.3679245611966735</v>
       </c>
       <c r="D14">
-        <v>0.566924975144957</v>
+        <v>0.416422787201725</v>
       </c>
       <c r="E14">
-        <v>0.1859334440043767</v>
+        <v>0.09363832493034607</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008250359981682122</v>
+        <v>1.252386366752262</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1653808091220981</v>
       </c>
       <c r="I14">
-        <v>15.6739640434659</v>
+        <v>0.004458754989599356</v>
       </c>
       <c r="J14">
-        <v>0.06697506995190849</v>
+        <v>0.8122024651229651</v>
       </c>
       <c r="K14">
-        <v>2.000225679460669</v>
+        <v>0.740934089480767</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.01565640695215897</v>
       </c>
       <c r="M14">
-        <v>0.718625266635911</v>
+        <v>1.835847887559595</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.848464621669649</v>
+        <v>1.501384708072891</v>
       </c>
       <c r="C15">
-        <v>1.411805268083071</v>
+        <v>0.3598744219814876</v>
       </c>
       <c r="D15">
-        <v>0.5615851113836641</v>
+        <v>0.3980926467208974</v>
       </c>
       <c r="E15">
-        <v>0.184267357976573</v>
+        <v>0.08499433467452278</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008264960951284971</v>
+        <v>1.201584937999428</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1781724595383594</v>
       </c>
       <c r="I15">
-        <v>15.50624740205274</v>
+        <v>0.004868939684034679</v>
       </c>
       <c r="J15">
-        <v>0.06643613222914269</v>
+        <v>0.7872399640703378</v>
       </c>
       <c r="K15">
-        <v>1.975552638445691</v>
+        <v>0.7146217159505923</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0129759443928199</v>
       </c>
       <c r="M15">
-        <v>0.7106113376324288</v>
+        <v>1.812246984856927</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7793022083680796</v>
+        <v>1.405546118964224</v>
       </c>
       <c r="C16">
-        <v>1.323376022389311</v>
+        <v>0.3377245452736872</v>
       </c>
       <c r="D16">
-        <v>0.5315119708906764</v>
+        <v>0.3798448995646453</v>
       </c>
       <c r="E16">
-        <v>0.174882154154254</v>
+        <v>0.08159358031065267</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008348474318473076</v>
+        <v>1.171368451597772</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1668114467880741</v>
       </c>
       <c r="I16">
-        <v>14.55676464712064</v>
+        <v>0.006343711242916328</v>
       </c>
       <c r="J16">
-        <v>0.06339861048920881</v>
+        <v>0.7770628661024261</v>
       </c>
       <c r="K16">
-        <v>1.837177510004324</v>
+        <v>0.7064667023834872</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.01210682085164994</v>
       </c>
       <c r="M16">
-        <v>0.6656024893058614</v>
+        <v>1.698002611952148</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7386076944362685</v>
+        <v>1.341816287065484</v>
       </c>
       <c r="C17">
-        <v>1.27012872304033</v>
+        <v>0.3343387013980532</v>
       </c>
       <c r="D17">
-        <v>0.5134994286811718</v>
+        <v>0.4013654128010842</v>
       </c>
       <c r="E17">
-        <v>0.169259123159911</v>
+        <v>0.09740047979664013</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008399625946880757</v>
+        <v>1.246517382412918</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1297687147735473</v>
       </c>
       <c r="I17">
-        <v>13.98375600057449</v>
+        <v>0.007182320024517352</v>
       </c>
       <c r="J17">
-        <v>0.06157737870569235</v>
+        <v>0.8185808366992404</v>
       </c>
       <c r="K17">
-        <v>1.754770068072247</v>
+        <v>0.7523581548266947</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.01816400612391256</v>
       </c>
       <c r="M17">
-        <v>0.638746250858091</v>
+        <v>1.636620756769787</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7157837930483879</v>
+        <v>1.29926610308155</v>
       </c>
       <c r="C18">
-        <v>1.239837841156884</v>
+        <v>0.3453510177600663</v>
       </c>
       <c r="D18">
-        <v>0.5032867121350364</v>
+        <v>0.4628182937966301</v>
       </c>
       <c r="E18">
-        <v>0.1660704360455298</v>
+        <v>0.1372872952642581</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008429039727223441</v>
+        <v>1.437850179572933</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07689860382871672</v>
       </c>
       <c r="I18">
-        <v>13.65731697920049</v>
+        <v>0.007064286470512826</v>
       </c>
       <c r="J18">
-        <v>0.06054415455881923</v>
+        <v>0.9176552138321483</v>
       </c>
       <c r="K18">
-        <v>1.708205536037241</v>
+        <v>0.8610386026810062</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04011730018741844</v>
       </c>
       <c r="M18">
-        <v>0.6235538584912135</v>
+        <v>1.612202639277371</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7081511925815391</v>
+        <v>1.275347887253957</v>
       </c>
       <c r="C19">
-        <v>1.22963661773656</v>
+        <v>0.3704612565987588</v>
       </c>
       <c r="D19">
-        <v>0.499853081733221</v>
+        <v>0.5574575679227678</v>
       </c>
       <c r="E19">
-        <v>0.164998274831305</v>
+        <v>0.2026309372644235</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008438999483655464</v>
+        <v>1.713542970676741</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03077965557378093</v>
       </c>
       <c r="I19">
-        <v>13.54729947319103</v>
+        <v>0.006723301955136485</v>
       </c>
       <c r="J19">
-        <v>0.06019667137357487</v>
+        <v>1.057735375420066</v>
       </c>
       <c r="K19">
-        <v>1.692575927011575</v>
+        <v>1.015090351203952</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08736988849810956</v>
       </c>
       <c r="M19">
-        <v>0.6184516654719516</v>
+        <v>1.621278488395006</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7428782308674045</v>
+        <v>1.307558089726541</v>
       </c>
       <c r="C20">
-        <v>1.275761563566562</v>
+        <v>0.4295785905728735</v>
       </c>
       <c r="D20">
-        <v>0.5154013422879302</v>
+        <v>0.7429079037007682</v>
       </c>
       <c r="E20">
-        <v>0.1698529083182194</v>
+        <v>0.3369516884308936</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008394182003487945</v>
+        <v>2.241099407621078</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002066155351359455</v>
       </c>
       <c r="I20">
-        <v>14.04442142858946</v>
+        <v>0.004912719509307273</v>
       </c>
       <c r="J20">
-        <v>0.06176974599898699</v>
+        <v>1.320337406091113</v>
       </c>
       <c r="K20">
-        <v>1.763454490053761</v>
+        <v>1.306634954204057</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2026127196186565</v>
       </c>
       <c r="M20">
-        <v>0.6415782997645962</v>
+        <v>1.721002010775976</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8669053063693752</v>
+        <v>1.473328202781346</v>
       </c>
       <c r="C21">
-        <v>1.434973732726235</v>
+        <v>0.4894399407778849</v>
       </c>
       <c r="D21">
-        <v>0.5694954267089258</v>
+        <v>0.8421067460240579</v>
       </c>
       <c r="E21">
-        <v>0.1867354075440204</v>
+        <v>0.3900428485225191</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008243354701411507</v>
+        <v>2.479970009047406</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003449724123614217</v>
       </c>
       <c r="I21">
-        <v>15.75460810979496</v>
+        <v>0.002871007539252624</v>
       </c>
       <c r="J21">
-        <v>0.06723445411272166</v>
+        <v>1.430651942142617</v>
       </c>
       <c r="K21">
-        <v>2.012113565173962</v>
+        <v>1.422789653152762</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2410230522085328</v>
       </c>
       <c r="M21">
-        <v>0.7224852863280091</v>
+        <v>1.944955682847848</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9544000688221672</v>
+        <v>1.58405650323536</v>
       </c>
       <c r="C22">
-        <v>1.542749518250616</v>
+        <v>0.5250210233826635</v>
       </c>
       <c r="D22">
-        <v>0.6064522213319492</v>
+        <v>0.8991940176096875</v>
       </c>
       <c r="E22">
-        <v>0.1982627207910994</v>
+        <v>0.4183403203299889</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000814420509954668</v>
+        <v>2.624471412717298</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.812689615389502E-06</v>
       </c>
       <c r="I22">
-        <v>16.90795609670982</v>
+        <v>0.001812898905375171</v>
       </c>
       <c r="J22">
-        <v>0.07096056323861433</v>
+        <v>1.496956194528224</v>
       </c>
       <c r="K22">
-        <v>2.183821451870728</v>
+        <v>1.49311314057833</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2600958384636698</v>
       </c>
       <c r="M22">
-        <v>0.7781506966689165</v>
+        <v>2.089353901880429</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9070458445657721</v>
+        <v>1.52600556516694</v>
       </c>
       <c r="C23">
-        <v>1.484847547059076</v>
+        <v>0.503948608236044</v>
       </c>
       <c r="D23">
-        <v>0.5865654410411594</v>
+        <v>0.8687306042151022</v>
       </c>
       <c r="E23">
-        <v>0.1920604613121597</v>
+        <v>0.4032521673575005</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008197203234424999</v>
+        <v>2.558412993216734</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001250192625028568</v>
       </c>
       <c r="I23">
-        <v>16.28871832285586</v>
+        <v>0.001998276688469858</v>
       </c>
       <c r="J23">
-        <v>0.06895625505917735</v>
+        <v>1.46714945266794</v>
       </c>
       <c r="K23">
-        <v>2.091240721050099</v>
+        <v>1.4630902763937</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2499239585632438</v>
       </c>
       <c r="M23">
-        <v>0.7481577710103409</v>
+        <v>2.010863701066</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7409457528470966</v>
+        <v>1.305273061818212</v>
       </c>
       <c r="C24">
-        <v>1.2732139619348</v>
+        <v>0.4288052216868437</v>
       </c>
       <c r="D24">
-        <v>0.5145410449262897</v>
+        <v>0.7542232353283111</v>
       </c>
       <c r="E24">
-        <v>0.1695843216977337</v>
+        <v>0.3464847947772185</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008396643187285058</v>
+        <v>2.292262499960231</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001845735182210984</v>
       </c>
       <c r="I24">
-        <v>14.01698535107118</v>
+        <v>0.004332567339666582</v>
       </c>
       <c r="J24">
-        <v>0.06168273396225743</v>
+        <v>1.346224306084224</v>
       </c>
       <c r="K24">
-        <v>1.759525750065336</v>
+        <v>1.337811812826104</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2118613120451727</v>
       </c>
       <c r="M24">
-        <v>0.6402971645686435</v>
+        <v>1.71796918788678</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5835904494876729</v>
+        <v>1.068660346400179</v>
       </c>
       <c r="C25">
-        <v>1.057481535774343</v>
+        <v>0.3501597347089103</v>
       </c>
       <c r="D25">
-        <v>0.4423849134104785</v>
+        <v>0.6323508473287518</v>
       </c>
       <c r="E25">
-        <v>0.14704725122375</v>
+        <v>0.2859741351234106</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008611688338964303</v>
+        <v>2.009330966193517</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.006157926912915057</v>
       </c>
       <c r="I25">
-        <v>11.68366663457584</v>
+        <v>0.009021531857359655</v>
       </c>
       <c r="J25">
-        <v>0.05437332603868583</v>
+        <v>1.217949330332118</v>
       </c>
       <c r="K25">
-        <v>1.432946080021878</v>
+        <v>1.204073491493439</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1717014319792156</v>
       </c>
       <c r="M25">
-        <v>0.5334905728975556</v>
+        <v>1.405830023780027</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8977239802970018</v>
+        <v>0.8695047255786506</v>
       </c>
       <c r="C2">
-        <v>0.2890893354127684</v>
+        <v>0.3673182908495676</v>
       </c>
       <c r="D2">
-        <v>0.5437584195442753</v>
+        <v>0.5481958011699817</v>
       </c>
       <c r="E2">
-        <v>0.2419118043982493</v>
+        <v>0.2449015051420105</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.830457936010873</v>
+        <v>1.402151568685568</v>
       </c>
       <c r="H2">
-        <v>0.01113806308107709</v>
+        <v>0.009242533208001558</v>
       </c>
       <c r="I2">
-        <v>0.01322176950576059</v>
+        <v>0.009143796549681227</v>
       </c>
       <c r="J2">
-        <v>1.138535434085441</v>
+        <v>0.924323354040439</v>
       </c>
       <c r="K2">
-        <v>1.124595274259875</v>
+        <v>0.8258285021741614</v>
       </c>
       <c r="L2">
-        <v>0.1427614826172601</v>
+        <v>0.3425922062986331</v>
       </c>
       <c r="M2">
-        <v>1.175139518963931</v>
+        <v>0.2778989237941474</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1450653674465414</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.231577516874552</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7806408367366373</v>
+        <v>0.7578932950943056</v>
       </c>
       <c r="C3">
-        <v>0.2513100293401465</v>
+        <v>0.3180040345413886</v>
       </c>
       <c r="D3">
-        <v>0.4841153264698619</v>
+        <v>0.4890532537144168</v>
       </c>
       <c r="E3">
-        <v>0.212168146917449</v>
+        <v>0.2154473753564758</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.69466545856011</v>
+        <v>1.324204418871133</v>
       </c>
       <c r="H3">
-        <v>0.01557243356157023</v>
+        <v>0.0129912904892267</v>
       </c>
       <c r="I3">
-        <v>0.01741411817169825</v>
+        <v>0.01208613417840221</v>
       </c>
       <c r="J3">
-        <v>1.077427998313823</v>
+        <v>0.8827768626077557</v>
       </c>
       <c r="K3">
-        <v>1.060394222047698</v>
+        <v>0.7957289878760321</v>
       </c>
       <c r="L3">
-        <v>0.123374973199823</v>
+        <v>0.338528904803745</v>
       </c>
       <c r="M3">
-        <v>1.021700457244521</v>
+        <v>0.2609123835492504</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1257754413409842</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.069745058300612</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7087588760133485</v>
+        <v>0.6892189783426375</v>
       </c>
       <c r="C4">
-        <v>0.2285437843603972</v>
+        <v>0.2882787038980155</v>
       </c>
       <c r="D4">
-        <v>0.4476680501227577</v>
+        <v>0.4529021580459869</v>
       </c>
       <c r="E4">
-        <v>0.1939562911646604</v>
+        <v>0.1973966271483576</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.61117157350165</v>
+        <v>1.276257186077331</v>
       </c>
       <c r="H4">
-        <v>0.01877230336981583</v>
+        <v>0.01570463538347178</v>
       </c>
       <c r="I4">
-        <v>0.020408680797257</v>
+        <v>0.0142138881889915</v>
       </c>
       <c r="J4">
-        <v>1.039896261354812</v>
+        <v>0.8568815156111782</v>
       </c>
       <c r="K4">
-        <v>1.02069565636171</v>
+        <v>0.7768847548131532</v>
       </c>
       <c r="L4">
-        <v>0.111572821972004</v>
+        <v>0.3356470423516171</v>
       </c>
       <c r="M4">
-        <v>0.9279403399234241</v>
+        <v>0.251133118866985</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1139993433192004</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9707415434190239</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6792054371825031</v>
+        <v>0.6609687678615046</v>
       </c>
       <c r="C5">
-        <v>0.2198583524637883</v>
+        <v>0.2767801857993391</v>
       </c>
       <c r="D5">
-        <v>0.4328400217889055</v>
+        <v>0.4381945582455273</v>
       </c>
       <c r="E5">
-        <v>0.1865359991160602</v>
+        <v>0.1900393050232765</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.574297616528042</v>
+        <v>1.254564918443151</v>
       </c>
       <c r="H5">
-        <v>0.02019897952626426</v>
+        <v>0.01691563996036316</v>
       </c>
       <c r="I5">
-        <v>0.02182809129910801</v>
+        <v>0.01526438360180382</v>
       </c>
       <c r="J5">
-        <v>1.023163095055452</v>
+        <v>0.8451135176781293</v>
       </c>
       <c r="K5">
-        <v>1.002537628021052</v>
+        <v>0.7677308236815037</v>
       </c>
       <c r="L5">
-        <v>0.1067798042754902</v>
+        <v>0.3337864988713832</v>
       </c>
       <c r="M5">
-        <v>0.8901629640284625</v>
+        <v>0.2468648025819</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1092096269854892</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9307722528234308</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6739860445584327</v>
+        <v>0.6560023689663126</v>
       </c>
       <c r="C6">
-        <v>0.2190263130020611</v>
+        <v>0.2754735013616028</v>
       </c>
       <c r="D6">
-        <v>0.4303652465119114</v>
+        <v>0.4357417448699437</v>
       </c>
       <c r="E6">
-        <v>0.185294893963281</v>
+        <v>0.1888095556610807</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.564744195614637</v>
+        <v>1.248372640324618</v>
       </c>
       <c r="H6">
-        <v>0.02045225351738944</v>
+        <v>0.01712998910354246</v>
       </c>
       <c r="I6">
-        <v>0.02219682490205432</v>
+        <v>0.01558180765922046</v>
       </c>
       <c r="J6">
-        <v>1.018637736207339</v>
+        <v>0.8417895240092292</v>
       </c>
       <c r="K6">
-        <v>0.9971911515560592</v>
+        <v>0.7645196510138703</v>
       </c>
       <c r="L6">
-        <v>0.1059788461138069</v>
+        <v>0.3327541589827661</v>
       </c>
       <c r="M6">
-        <v>0.8843046390481391</v>
+        <v>0.2456220818268235</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1084091626910464</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9245052599497399</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7075049247673633</v>
+        <v>0.6883863359724103</v>
       </c>
       <c r="C7">
-        <v>0.2300791644571945</v>
+        <v>0.2890159307771683</v>
       </c>
       <c r="D7">
-        <v>0.4474280596657252</v>
+        <v>0.4526461112159552</v>
       </c>
       <c r="E7">
-        <v>0.1938303246119375</v>
+        <v>0.1972590707802837</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.601301406952572</v>
+        <v>1.271537555278329</v>
       </c>
       <c r="H7">
-        <v>0.01881574458140456</v>
+        <v>0.01575254628384581</v>
       </c>
       <c r="I7">
-        <v>0.02075522821448317</v>
+        <v>0.01459963624929106</v>
       </c>
       <c r="J7">
-        <v>1.034899707890247</v>
+        <v>0.8435584679787382</v>
       </c>
       <c r="K7">
-        <v>1.014089089660779</v>
+        <v>0.7699311404357374</v>
       </c>
       <c r="L7">
-        <v>0.111490376807609</v>
+        <v>0.3327586852213784</v>
       </c>
       <c r="M7">
-        <v>0.9285481506534552</v>
+        <v>0.24882698461386</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1139069564833122</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9707169381018161</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8561938192240461</v>
+        <v>0.8310319389917709</v>
       </c>
       <c r="C8">
-        <v>0.2781688442091479</v>
+        <v>0.3498881655798129</v>
       </c>
       <c r="D8">
-        <v>0.5230998479908919</v>
+        <v>0.5276454582696886</v>
       </c>
       <c r="E8">
-        <v>0.2316079949916912</v>
+        <v>0.2346551370178247</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.771216341633732</v>
+        <v>1.374877939774009</v>
       </c>
       <c r="H8">
-        <v>0.01259061438604353</v>
+        <v>0.01049947972369982</v>
       </c>
       <c r="I8">
-        <v>0.01496409504376661</v>
+        <v>0.01055416708587664</v>
       </c>
       <c r="J8">
-        <v>1.111150447198469</v>
+        <v>0.8741882323308516</v>
       </c>
       <c r="K8">
-        <v>1.094081011987882</v>
+        <v>0.8021853739278271</v>
       </c>
       <c r="L8">
-        <v>0.1360274642481016</v>
+        <v>0.3359440639324944</v>
       </c>
       <c r="M8">
-        <v>1.123607719979503</v>
+        <v>0.2672469409981808</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.138335318294331</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.175377455216221</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.149823818027102</v>
+        <v>1.110185828607626</v>
       </c>
       <c r="C9">
-        <v>0.3733475480562163</v>
+        <v>0.4738386358869775</v>
       </c>
       <c r="D9">
-        <v>0.6732938048310473</v>
+        <v>0.6764618845619736</v>
       </c>
       <c r="E9">
-        <v>0.306330500071553</v>
+        <v>0.3085157048380793</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.121090996374477</v>
+        <v>1.580426473231825</v>
       </c>
       <c r="H9">
-        <v>0.004381079627267637</v>
+        <v>0.003591984126171122</v>
       </c>
       <c r="I9">
-        <v>0.006679060913696411</v>
+        <v>0.004735607334214187</v>
       </c>
       <c r="J9">
-        <v>1.269470382035763</v>
+        <v>0.9716214590507946</v>
       </c>
       <c r="K9">
-        <v>1.260422341874559</v>
+        <v>0.8788931869167484</v>
       </c>
       <c r="L9">
-        <v>0.1851700081599148</v>
+        <v>0.3457337378593408</v>
       </c>
       <c r="M9">
-        <v>1.508550360569672</v>
+        <v>0.3141670419468312</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.187000455147512</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.58024770737029</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.367599463211434</v>
+        <v>1.318889571783188</v>
       </c>
       <c r="C10">
-        <v>0.4429774440064875</v>
+        <v>0.5585074433315071</v>
       </c>
       <c r="D10">
-        <v>0.7689214267001603</v>
+        <v>0.7708459671904393</v>
       </c>
       <c r="E10">
-        <v>0.3487630384511036</v>
+        <v>0.350104791431356</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.326218707219795</v>
+        <v>1.711729902086972</v>
       </c>
       <c r="H10">
-        <v>0.001481302902762049</v>
+        <v>0.001233580266792877</v>
       </c>
       <c r="I10">
-        <v>0.003315027420210725</v>
+        <v>0.002586577852630612</v>
       </c>
       <c r="J10">
-        <v>1.359879489113354</v>
+        <v>0.9708601825424807</v>
       </c>
       <c r="K10">
-        <v>1.351287673146786</v>
+        <v>0.9023158354498975</v>
       </c>
       <c r="L10">
-        <v>0.2097076792715029</v>
+        <v>0.3398984678293218</v>
       </c>
       <c r="M10">
-        <v>1.79252915805256</v>
+        <v>0.3396006952229413</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2108875017475071</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.873968100360912</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.479403235484028</v>
+        <v>1.436565541508429</v>
       </c>
       <c r="C11">
-        <v>0.4420575500294888</v>
+        <v>0.5380207181384833</v>
       </c>
       <c r="D11">
-        <v>0.6757996919774598</v>
+        <v>0.6772711472350466</v>
       </c>
       <c r="E11">
-        <v>0.2628137680673674</v>
+        <v>0.2638129504595312</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.002926866539724</v>
+        <v>1.507746494663394</v>
       </c>
       <c r="H11">
-        <v>0.02007125478187533</v>
+        <v>0.01986187324903099</v>
       </c>
       <c r="I11">
-        <v>0.003346248992668777</v>
+        <v>0.002919303371043291</v>
       </c>
       <c r="J11">
-        <v>1.191833644698136</v>
+        <v>0.7584057190502733</v>
       </c>
       <c r="K11">
-        <v>1.15593210589671</v>
+        <v>0.7498206345257685</v>
       </c>
       <c r="L11">
-        <v>0.1269326049745914</v>
+        <v>0.2802866592152498</v>
       </c>
       <c r="M11">
-        <v>1.894889954600103</v>
+        <v>0.2862208350694004</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1278025713272157</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.965732045623099</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.529887977847977</v>
+        <v>1.493060900825839</v>
       </c>
       <c r="C12">
-        <v>0.4236689434718528</v>
+        <v>0.503302402268929</v>
       </c>
       <c r="D12">
-        <v>0.5828532762794794</v>
+        <v>0.5842484252449935</v>
       </c>
       <c r="E12">
-        <v>0.1926461526284697</v>
+        <v>0.1935711499665089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.722052808785861</v>
+        <v>1.31985908954465</v>
       </c>
       <c r="H12">
-        <v>0.05903872075016636</v>
+        <v>0.05879894703303279</v>
       </c>
       <c r="I12">
-        <v>0.003374444729158377</v>
+        <v>0.002935536659559368</v>
       </c>
       <c r="J12">
-        <v>1.04820359961991</v>
+        <v>0.6334192556955855</v>
       </c>
       <c r="K12">
-        <v>0.9954595617027806</v>
+        <v>0.6415788133578531</v>
       </c>
       <c r="L12">
-        <v>0.07078091593798774</v>
+        <v>0.2410736059587997</v>
       </c>
       <c r="M12">
-        <v>1.918678554195679</v>
+        <v>0.244808715043483</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07157527908806571</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.980385021314731</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.534226517094538</v>
+        <v>1.50305514735507</v>
       </c>
       <c r="C13">
-        <v>0.3935608176760752</v>
+        <v>0.4600490596250779</v>
       </c>
       <c r="D13">
-        <v>0.4852949295458018</v>
+        <v>0.4868658262610666</v>
       </c>
       <c r="E13">
-        <v>0.13099752802583</v>
+        <v>0.132013636074273</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.443755934622828</v>
+        <v>1.118981675533789</v>
       </c>
       <c r="H13">
-        <v>0.1154064594776116</v>
+        <v>0.1150572115602841</v>
       </c>
       <c r="I13">
-        <v>0.003817037704561876</v>
+        <v>0.003184798508996778</v>
       </c>
       <c r="J13">
-        <v>0.90790886847563</v>
+        <v>0.5636837811195647</v>
       </c>
       <c r="K13">
-        <v>0.842917627501734</v>
+        <v>0.555029670108965</v>
       </c>
       <c r="L13">
-        <v>0.03208760103601449</v>
+        <v>0.2118523562072774</v>
       </c>
       <c r="M13">
-        <v>1.884936282251545</v>
+        <v>0.2089350650568917</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03294198156258688</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.939367181935609</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.516127461346201</v>
+        <v>1.488749319744926</v>
       </c>
       <c r="C14">
-        <v>0.3679245611966735</v>
+        <v>0.4264725088623891</v>
       </c>
       <c r="D14">
-        <v>0.416422787201725</v>
+        <v>0.4181865344664004</v>
       </c>
       <c r="E14">
-        <v>0.09363832493034607</v>
+        <v>0.09475868094743944</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.252386366752262</v>
+        <v>0.9757688447400596</v>
       </c>
       <c r="H14">
-        <v>0.1653808091220981</v>
+        <v>0.1649040784591733</v>
       </c>
       <c r="I14">
-        <v>0.004458754989599356</v>
+        <v>0.003603707806187018</v>
       </c>
       <c r="J14">
-        <v>0.8122024651229651</v>
+        <v>0.5334183602107743</v>
       </c>
       <c r="K14">
-        <v>0.740934089480767</v>
+        <v>0.5028702749677265</v>
       </c>
       <c r="L14">
-        <v>0.01565640695215897</v>
+        <v>0.1950298737478811</v>
       </c>
       <c r="M14">
-        <v>1.835847887559595</v>
+        <v>0.1861958387194385</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.01658003043609213</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.885889344011275</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.501384708072891</v>
+        <v>1.474895054863282</v>
       </c>
       <c r="C15">
-        <v>0.3598744219814876</v>
+        <v>0.4168673487305909</v>
       </c>
       <c r="D15">
-        <v>0.3980926467208974</v>
+        <v>0.399948487861252</v>
       </c>
       <c r="E15">
-        <v>0.08499433467452278</v>
+        <v>0.08616742573796898</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.201584937999428</v>
+        <v>0.9361438709334209</v>
       </c>
       <c r="H15">
-        <v>0.1781724595383594</v>
+        <v>0.1776364311667464</v>
       </c>
       <c r="I15">
-        <v>0.004868939684034679</v>
+        <v>0.003928424422212196</v>
       </c>
       <c r="J15">
-        <v>0.7872399640703378</v>
+        <v>0.53204040603039</v>
       </c>
       <c r="K15">
-        <v>0.7146217159505923</v>
+        <v>0.4915123442973943</v>
       </c>
       <c r="L15">
-        <v>0.0129759443928199</v>
+        <v>0.1916736182032039</v>
       </c>
       <c r="M15">
-        <v>1.812246984856927</v>
+        <v>0.1807831952397976</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.01393527590362709</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.86147427529778</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.405546118964224</v>
+        <v>1.37873050890235</v>
       </c>
       <c r="C16">
-        <v>0.3377245452736872</v>
+        <v>0.397412181177458</v>
       </c>
       <c r="D16">
-        <v>0.3798448995646453</v>
+        <v>0.382173952052355</v>
       </c>
       <c r="E16">
-        <v>0.08159358031065267</v>
+        <v>0.08306031559965277</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.171368451597772</v>
+        <v>0.902263394463958</v>
       </c>
       <c r="H16">
-        <v>0.1668114467880741</v>
+        <v>0.1659930239021179</v>
       </c>
       <c r="I16">
-        <v>0.006343711242916328</v>
+        <v>0.004916167399940718</v>
       </c>
       <c r="J16">
-        <v>0.7770628661024261</v>
+        <v>0.5906817070975734</v>
       </c>
       <c r="K16">
-        <v>0.7064667023834872</v>
+        <v>0.5078653980623358</v>
       </c>
       <c r="L16">
-        <v>0.01210682085164994</v>
+        <v>0.2002504718769345</v>
       </c>
       <c r="M16">
-        <v>1.698002611952148</v>
+        <v>0.1832089257786471</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.01326910414692062</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.749362676010065</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.341816287065484</v>
+        <v>1.313320546219131</v>
       </c>
       <c r="C17">
-        <v>0.3343387013980532</v>
+        <v>0.3993399295035829</v>
       </c>
       <c r="D17">
-        <v>0.4013654128010842</v>
+        <v>0.4039832066307554</v>
       </c>
       <c r="E17">
-        <v>0.09740047979664013</v>
+        <v>0.09906165766582475</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.246517382412918</v>
+        <v>0.9518204748627568</v>
       </c>
       <c r="H17">
-        <v>0.1297687147735473</v>
+        <v>0.1288043596167228</v>
       </c>
       <c r="I17">
-        <v>0.007182320024517352</v>
+        <v>0.005502079286067385</v>
       </c>
       <c r="J17">
-        <v>0.8185808366992404</v>
+        <v>0.649702716083425</v>
       </c>
       <c r="K17">
-        <v>0.7523581548266947</v>
+        <v>0.5468795454729758</v>
       </c>
       <c r="L17">
-        <v>0.01816400612391256</v>
+        <v>0.2160062368874733</v>
       </c>
       <c r="M17">
-        <v>1.636620756769787</v>
+        <v>0.1960740911442151</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.01946698195968821</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.69109320331313</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.29926610308155</v>
+        <v>1.267034709686101</v>
       </c>
       <c r="C18">
-        <v>0.3453510177600663</v>
+        <v>0.4203719546557068</v>
       </c>
       <c r="D18">
-        <v>0.4628182937966301</v>
+        <v>0.4656156691283684</v>
       </c>
       <c r="E18">
-        <v>0.1372872952642581</v>
+        <v>0.1390977274818894</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.437850179572933</v>
+        <v>1.085390305319493</v>
       </c>
       <c r="H18">
-        <v>0.07689860382871672</v>
+        <v>0.07594007900098632</v>
       </c>
       <c r="I18">
-        <v>0.007064286470512826</v>
+        <v>0.005311843076967193</v>
       </c>
       <c r="J18">
-        <v>0.9176552138321483</v>
+        <v>0.7337059478502965</v>
       </c>
       <c r="K18">
-        <v>0.8610386026810062</v>
+        <v>0.6204920661874596</v>
       </c>
       <c r="L18">
-        <v>0.04011730018741844</v>
+        <v>0.2437987145133782</v>
       </c>
       <c r="M18">
-        <v>1.612202639277371</v>
+        <v>0.2231626851826576</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0415553013681631</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.672301487755817</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.275347887253957</v>
+        <v>1.238024792422578</v>
       </c>
       <c r="C19">
-        <v>0.3704612565987588</v>
+        <v>0.4595169532632042</v>
       </c>
       <c r="D19">
-        <v>0.5574575679227678</v>
+        <v>0.5603039509967402</v>
       </c>
       <c r="E19">
-        <v>0.2026309372644235</v>
+        <v>0.2045245879787458</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.713542970676741</v>
+        <v>1.277190398920013</v>
       </c>
       <c r="H19">
-        <v>0.03077965557378093</v>
+        <v>0.02996824494773875</v>
       </c>
       <c r="I19">
-        <v>0.006723301955136485</v>
+        <v>0.005168992739333689</v>
       </c>
       <c r="J19">
-        <v>1.057735375420066</v>
+        <v>0.8371049146478242</v>
       </c>
       <c r="K19">
-        <v>1.015090351203952</v>
+        <v>0.7186573974622092</v>
       </c>
       <c r="L19">
-        <v>0.08736988849810956</v>
+        <v>0.2799763068557937</v>
       </c>
       <c r="M19">
-        <v>1.621278488395006</v>
+        <v>0.2605066937303064</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08891924579020127</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.688816672603849</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.307558089726541</v>
+        <v>1.260641566504717</v>
       </c>
       <c r="C20">
-        <v>0.4295785905728735</v>
+        <v>0.5437986120537062</v>
       </c>
       <c r="D20">
-        <v>0.7429079037007682</v>
+        <v>0.7452722522338888</v>
       </c>
       <c r="E20">
-        <v>0.3369516884308936</v>
+        <v>0.3385952907702006</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.241099407621078</v>
+        <v>1.644431057405882</v>
       </c>
       <c r="H20">
-        <v>0.002066155351359455</v>
+        <v>0.001688126886215002</v>
       </c>
       <c r="I20">
-        <v>0.004912719509307273</v>
+        <v>0.004034594612293496</v>
       </c>
       <c r="J20">
-        <v>1.320337406091113</v>
+        <v>0.9918338715129096</v>
       </c>
       <c r="K20">
-        <v>1.306634954204057</v>
+        <v>0.8896338323179407</v>
       </c>
       <c r="L20">
-        <v>0.2026127196186565</v>
+        <v>0.3390734873722323</v>
       </c>
       <c r="M20">
-        <v>1.721002010775976</v>
+        <v>0.3302044937560495</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2040403212144071</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.801426930023268</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.473328202781346</v>
+        <v>1.423604449059525</v>
       </c>
       <c r="C21">
-        <v>0.4894399407778849</v>
+        <v>0.6038845263333315</v>
       </c>
       <c r="D21">
-        <v>0.8421067460240579</v>
+        <v>0.8429920055335174</v>
       </c>
       <c r="E21">
-        <v>0.3900428485225191</v>
+        <v>0.3906652974961702</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.479970009047406</v>
+        <v>1.856141872079803</v>
       </c>
       <c r="H21">
-        <v>0.0003449724123614217</v>
+        <v>0.0002880000484708489</v>
       </c>
       <c r="I21">
-        <v>0.002871007539252624</v>
+        <v>0.002772224625529063</v>
       </c>
       <c r="J21">
-        <v>1.430651942142617</v>
+        <v>0.8583016995275017</v>
       </c>
       <c r="K21">
-        <v>1.422789653152762</v>
+        <v>0.8965480749787957</v>
       </c>
       <c r="L21">
-        <v>0.2410230522085328</v>
+        <v>0.3309365734387271</v>
       </c>
       <c r="M21">
-        <v>1.944955682847848</v>
+        <v>0.3459514624680935</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2415839863890454</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.024243080309049</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.58405650323536</v>
+        <v>1.533072979859014</v>
       </c>
       <c r="C22">
-        <v>0.5250210233826635</v>
+        <v>0.6371877668318575</v>
       </c>
       <c r="D22">
-        <v>0.8991940176096875</v>
+        <v>0.8990522618838384</v>
       </c>
       <c r="E22">
-        <v>0.4183403203299889</v>
+        <v>0.4182401794453057</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.624471412717298</v>
+        <v>1.994416884046274</v>
       </c>
       <c r="H22">
-        <v>8.812689615389502E-06</v>
+        <v>1.035623338463409E-05</v>
       </c>
       <c r="I22">
-        <v>0.001812898905375171</v>
+        <v>0.001953710993560343</v>
       </c>
       <c r="J22">
-        <v>1.496956194528224</v>
+        <v>0.765651950165406</v>
       </c>
       <c r="K22">
-        <v>1.49311314057833</v>
+        <v>0.8947820111171794</v>
       </c>
       <c r="L22">
-        <v>0.2600958384636698</v>
+        <v>0.3235779330767485</v>
       </c>
       <c r="M22">
-        <v>2.089353901880429</v>
+        <v>0.3540494726665102</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2600038457726441</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.166212369554643</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.52600556516694</v>
+        <v>1.474730190084131</v>
       </c>
       <c r="C23">
-        <v>0.503948608236044</v>
+        <v>0.6194608002981283</v>
       </c>
       <c r="D23">
-        <v>0.8687306042151022</v>
+        <v>0.8691823991156298</v>
       </c>
       <c r="E23">
-        <v>0.4032521673575005</v>
+        <v>0.4035706219624231</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.558412993216734</v>
+        <v>1.920759060291829</v>
       </c>
       <c r="H23">
-        <v>0.0001250192625028568</v>
+        <v>0.0001076215042417061</v>
       </c>
       <c r="I23">
-        <v>0.001998276688469858</v>
+        <v>0.001965233205941885</v>
       </c>
       <c r="J23">
-        <v>1.46714945266794</v>
+        <v>0.8377877617510165</v>
       </c>
       <c r="K23">
-        <v>1.4630902763937</v>
+        <v>0.9061126642051818</v>
       </c>
       <c r="L23">
-        <v>0.2499239585632438</v>
+        <v>0.3310586671558013</v>
       </c>
       <c r="M23">
-        <v>2.010863701066</v>
+        <v>0.3539198093520639</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2502136725133255</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.090598768168292</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.305273061818212</v>
+        <v>1.25763283665799</v>
       </c>
       <c r="C24">
-        <v>0.4288052216868437</v>
+        <v>0.5446427037813066</v>
       </c>
       <c r="D24">
-        <v>0.7542232353283111</v>
+        <v>0.7565685983400954</v>
       </c>
       <c r="E24">
-        <v>0.3464847947772185</v>
+        <v>0.3481199387563763</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.292262499960231</v>
+        <v>1.680281542420289</v>
       </c>
       <c r="H24">
-        <v>0.001845735182210984</v>
+        <v>0.001484005598608729</v>
       </c>
       <c r="I24">
-        <v>0.004332567339666582</v>
+        <v>0.003377144139154353</v>
       </c>
       <c r="J24">
-        <v>1.346224306084224</v>
+        <v>1.011932887318096</v>
       </c>
       <c r="K24">
-        <v>1.337811812826104</v>
+        <v>0.910371188190382</v>
       </c>
       <c r="L24">
-        <v>0.2118613120451727</v>
+        <v>0.3467310635710064</v>
       </c>
       <c r="M24">
-        <v>1.71796918788678</v>
+        <v>0.3380738527259624</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2132856581058462</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.799353295074638</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.068660346400179</v>
+        <v>1.032892304157031</v>
       </c>
       <c r="C25">
-        <v>0.3501597347089103</v>
+        <v>0.4438273576988081</v>
       </c>
       <c r="D25">
-        <v>0.6323508473287518</v>
+        <v>0.6359566661269582</v>
       </c>
       <c r="E25">
-        <v>0.2859741351234106</v>
+        <v>0.2884445500053516</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.009330966193517</v>
+        <v>1.508291815556476</v>
       </c>
       <c r="H25">
-        <v>0.006157926912915057</v>
+        <v>0.005068387803655927</v>
       </c>
       <c r="I25">
-        <v>0.009021531857359655</v>
+        <v>0.006567931885845368</v>
       </c>
       <c r="J25">
-        <v>1.217949330332118</v>
+        <v>0.9523286202152121</v>
       </c>
       <c r="K25">
-        <v>1.204073491493439</v>
+        <v>0.8534978542053864</v>
       </c>
       <c r="L25">
-        <v>0.1717014319792156</v>
+        <v>0.3415551961034993</v>
       </c>
       <c r="M25">
-        <v>1.405830023780027</v>
+        <v>0.2990635949315958</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1737225891522982</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.472767915579425</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
